--- a/Estadisticas_Servidores.xlsx
+++ b/Estadisticas_Servidores.xlsx
@@ -35,1348 +35,1348 @@
     <t>Val2</t>
   </si>
   <si>
+    <t>SA_Cut_1</t>
+  </si>
+  <si>
+    <t>FA_Cut_2</t>
+  </si>
+  <si>
+    <t>FA_Cut_1</t>
+  </si>
+  <si>
+    <t>BP_Cut_1</t>
+  </si>
+  <si>
+    <t>SA_Routing_1</t>
+  </si>
+  <si>
+    <t>BP_Drill_1</t>
+  </si>
+  <si>
+    <t>SA_Drill_1</t>
+  </si>
+  <si>
+    <t>FA_Drill_1</t>
+  </si>
+  <si>
+    <t>FA_Drill_2</t>
+  </si>
+  <si>
+    <t>SA_Drill_2</t>
+  </si>
+  <si>
+    <t>FA_Drill_3</t>
+  </si>
+  <si>
+    <t>BP_Sand_1</t>
+  </si>
+  <si>
+    <t>FA_Assemble_1</t>
+  </si>
+  <si>
+    <t>BP_Sand_2</t>
+  </si>
+  <si>
+    <t>SA_Assemble_1</t>
+  </si>
+  <si>
+    <t>BP_Drill_2</t>
+  </si>
+  <si>
     <t>Assemble_1</t>
   </si>
   <si>
+    <t>BP_Paint_1</t>
+  </si>
+  <si>
+    <t>SA_Drill_3</t>
+  </si>
+  <si>
+    <t>SA_Assemble_2</t>
+  </si>
+  <si>
+    <t>Sand_1</t>
+  </si>
+  <si>
+    <t>BP_Paint_2</t>
+  </si>
+  <si>
+    <t>Assemble_3</t>
+  </si>
+  <si>
+    <t>Sand_2</t>
+  </si>
+  <si>
+    <t>BP_Drill_3</t>
+  </si>
+  <si>
+    <t>Sand_3</t>
+  </si>
+  <si>
+    <t>Sand_4</t>
+  </si>
+  <si>
+    <t>Paint_1</t>
+  </si>
+  <si>
+    <t>Paint_2</t>
+  </si>
+  <si>
+    <t>Paint_3</t>
+  </si>
+  <si>
     <t>Assemble_2</t>
   </si>
   <si>
-    <t>Assemble_3</t>
-  </si>
-  <si>
     <t>Attach_BP_1</t>
   </si>
   <si>
-    <t>BP_Cut_1</t>
-  </si>
-  <si>
-    <t>BP_Drill_1</t>
-  </si>
-  <si>
-    <t>BP_Drill_2</t>
-  </si>
-  <si>
-    <t>BP_Drill_3</t>
-  </si>
-  <si>
-    <t>BP_Paint_1</t>
-  </si>
-  <si>
-    <t>BP_Paint_2</t>
-  </si>
-  <si>
-    <t>BP_Sand_1</t>
-  </si>
-  <si>
-    <t>BP_Sand_2</t>
-  </si>
-  <si>
-    <t>FA_Assemble_1</t>
-  </si>
-  <si>
-    <t>FA_Cut_1</t>
-  </si>
-  <si>
-    <t>FA_Cut_2</t>
-  </si>
-  <si>
-    <t>FA_Drill_1</t>
-  </si>
-  <si>
-    <t>FA_Drill_2</t>
-  </si>
-  <si>
-    <t>FA_Drill_3</t>
-  </si>
-  <si>
-    <t>Paint_1</t>
-  </si>
-  <si>
-    <t>Paint_2</t>
-  </si>
-  <si>
-    <t>Paint_3</t>
-  </si>
-  <si>
-    <t>SA_Assemble_1</t>
-  </si>
-  <si>
-    <t>SA_Assemble_2</t>
-  </si>
-  <si>
-    <t>SA_Cut_1</t>
-  </si>
-  <si>
-    <t>SA_Drill_1</t>
-  </si>
-  <si>
-    <t>SA_Drill_2</t>
-  </si>
-  <si>
-    <t>SA_Drill_3</t>
-  </si>
-  <si>
-    <t>SA_Routing_1</t>
-  </si>
-  <si>
-    <t>Sand_1</t>
-  </si>
-  <si>
-    <t>Sand_2</t>
-  </si>
-  <si>
-    <t>Sand_3</t>
-  </si>
-  <si>
-    <t>Sand_4</t>
+    <t>B22_SA</t>
+  </si>
+  <si>
+    <t>B22_FA</t>
+  </si>
+  <si>
+    <t>B22_BP</t>
   </si>
   <si>
     <t>B22</t>
   </si>
   <si>
+    <t>B23_FA</t>
+  </si>
+  <si>
+    <t>B23_BP</t>
+  </si>
+  <si>
+    <t>B23_SA</t>
+  </si>
+  <si>
     <t>B23</t>
   </si>
   <si>
+    <t>B24_FA</t>
+  </si>
+  <si>
+    <t>B24_BP</t>
+  </si>
+  <si>
+    <t>B24_SA</t>
+  </si>
+  <si>
+    <t>O22_FA</t>
+  </si>
+  <si>
     <t>B24</t>
   </si>
   <si>
+    <t>O22_BP</t>
+  </si>
+  <si>
+    <t>O23_FA</t>
+  </si>
+  <si>
+    <t>O23_BP</t>
+  </si>
+  <si>
+    <t>O22_SA</t>
+  </si>
+  <si>
+    <t>O24_FA</t>
+  </si>
+  <si>
     <t>O22</t>
   </si>
   <si>
+    <t>O24_BP</t>
+  </si>
+  <si>
+    <t>O23_SA</t>
+  </si>
+  <si>
     <t>O23</t>
   </si>
   <si>
+    <t>O24_SA</t>
+  </si>
+  <si>
     <t>O24</t>
   </si>
   <si>
-    <t>B22_BP</t>
-  </si>
-  <si>
-    <t>B23_BP</t>
-  </si>
-  <si>
-    <t>B24_BP</t>
-  </si>
-  <si>
-    <t>O22_BP</t>
-  </si>
-  <si>
-    <t>O23_BP</t>
-  </si>
-  <si>
-    <t>O24_BP</t>
-  </si>
-  <si>
-    <t>B22_FA</t>
-  </si>
-  <si>
-    <t>B23_FA</t>
-  </si>
-  <si>
-    <t>B24_FA</t>
-  </si>
-  <si>
-    <t>O22_FA</t>
-  </si>
-  <si>
-    <t>O23_FA</t>
-  </si>
-  <si>
-    <t>O24_FA</t>
-  </si>
-  <si>
-    <t>B22_SA</t>
-  </si>
-  <si>
-    <t>B23_SA</t>
-  </si>
-  <si>
-    <t>B24_SA</t>
-  </si>
-  <si>
-    <t>O22_SA</t>
-  </si>
-  <si>
-    <t>O23_SA</t>
-  </si>
-  <si>
-    <t>O24_SA</t>
+    <t>Normal</t>
   </si>
   <si>
     <t>Gamma</t>
   </si>
   <si>
-    <t>Normal</t>
-  </si>
-  <si>
     <t>Weibull</t>
   </si>
   <si>
+    <t>mean</t>
+  </si>
+  <si>
     <t>shape</t>
   </si>
   <si>
-    <t>mean</t>
-  </si>
-  <si>
-    <t>246.414949362713</t>
-  </si>
-  <si>
-    <t>6.45673516005479</t>
-  </si>
-  <si>
-    <t>12.9263305326807</t>
-  </si>
-  <si>
-    <t>6.91096866033333</t>
-  </si>
-  <si>
-    <t>9.03175675992345</t>
-  </si>
-  <si>
-    <t>0.918045266329845</t>
-  </si>
-  <si>
-    <t>4.32847769003937</t>
-  </si>
-  <si>
-    <t>6.39807692288462</t>
-  </si>
-  <si>
-    <t>10.1299707604123</t>
-  </si>
-  <si>
-    <t>6.84411764698319</t>
-  </si>
-  <si>
-    <t>6.41405797105217</t>
-  </si>
-  <si>
-    <t>27.2640624992708</t>
-  </si>
-  <si>
-    <t>4.42894056832558</t>
-  </si>
-  <si>
-    <t>6.56287878764545</t>
-  </si>
-  <si>
-    <t>11.615416665925</t>
-  </si>
-  <si>
-    <t>6.87074829969388</t>
-  </si>
-  <si>
-    <t>211.409604850215</t>
-  </si>
-  <si>
-    <t>21.590579710058</t>
-  </si>
-  <si>
-    <t>1.6266495284036</t>
-  </si>
-  <si>
-    <t>3.71649260234726</t>
-  </si>
-  <si>
-    <t>3.07182017561842</t>
-  </si>
-  <si>
-    <t>4.37337398367988</t>
-  </si>
-  <si>
-    <t>4.90137614692966</t>
-  </si>
-  <si>
-    <t>19.3685802472222</t>
-  </si>
-  <si>
-    <t>2.12666666639459</t>
-  </si>
-  <si>
-    <t>2.77420327274677</t>
-  </si>
-  <si>
-    <t>2.62459016377049</t>
-  </si>
-  <si>
-    <t>2.12660818710526</t>
-  </si>
-  <si>
-    <t>5.39401840510736</t>
-  </si>
-  <si>
-    <t>2.62380952404396</t>
-  </si>
-  <si>
-    <t>5.66583333402857</t>
-  </si>
-  <si>
-    <t>13.1712393708505</t>
-  </si>
-  <si>
-    <t>17.1229364701656</t>
-  </si>
-  <si>
-    <t>11.2246913578519</t>
-  </si>
-  <si>
-    <t>11.1033639142752</t>
-  </si>
-  <si>
-    <t>196.591135798173</t>
-  </si>
-  <si>
-    <t>216.045031962887</t>
-  </si>
-  <si>
-    <t>8.38888888924031</t>
-  </si>
-  <si>
-    <t>221.41993282326</t>
-  </si>
-  <si>
-    <t>10.3748538011842</t>
-  </si>
-  <si>
-    <t>12.5557017544123</t>
-  </si>
-  <si>
-    <t>201.544167386827</t>
-  </si>
-  <si>
-    <t>5.69514435625984</t>
-  </si>
-  <si>
-    <t>8.71972010166412</t>
-  </si>
-  <si>
-    <t>11.0453703701019</t>
-  </si>
-  <si>
-    <t>9.87247023816071</t>
-  </si>
-  <si>
-    <t>10.6272585668785</t>
-  </si>
-  <si>
-    <t>10.8069105687073</t>
-  </si>
-  <si>
-    <t>2.49469357255605</t>
-  </si>
-  <si>
-    <t>3.4889855074913</t>
-  </si>
-  <si>
-    <t>4.85539772646591</t>
-  </si>
-  <si>
-    <t>5.14011437922549</t>
-  </si>
-  <si>
-    <t>3.80008726032461</t>
-  </si>
-  <si>
-    <t>7.0018772234228</t>
-  </si>
-  <si>
-    <t>304.351257985959</t>
-  </si>
-  <si>
-    <t>3.46257310007018</t>
-  </si>
-  <si>
-    <t>6.55069109117143</t>
-  </si>
-  <si>
-    <t>5.87600849258599</t>
-  </si>
-  <si>
-    <t>3.41200396863095</t>
-  </si>
-  <si>
-    <t>199.207320086462</t>
-  </si>
-  <si>
-    <t>3.26658496706373</t>
-  </si>
-  <si>
-    <t>1.58781733753727</t>
-  </si>
-  <si>
-    <t>6.15844748855479</t>
-  </si>
-  <si>
-    <t>6.4130630624973</t>
-  </si>
-  <si>
-    <t>5.96049723698895</t>
-  </si>
-  <si>
-    <t>205.006676840984</t>
-  </si>
-  <si>
-    <t>3.27092592579444</t>
-  </si>
-  <si>
-    <t>4.66168384909794</t>
-  </si>
-  <si>
-    <t>6.21840958628758</t>
-  </si>
-  <si>
-    <t>6.21572916674375</t>
-  </si>
-  <si>
-    <t>6.1673958331875</t>
-  </si>
-  <si>
-    <t>6.24644808789344</t>
-  </si>
-  <si>
-    <t>1.79346666675467</t>
-  </si>
-  <si>
-    <t>1.7928824047374</t>
-  </si>
-  <si>
-    <t>1.79251366118361</t>
-  </si>
-  <si>
-    <t>2.15252525224242</t>
-  </si>
-  <si>
-    <t>3.58079601989851</t>
-  </si>
-  <si>
-    <t>2.01481481461852</t>
-  </si>
-  <si>
-    <t>3.81823734754974</t>
-  </si>
-  <si>
-    <t>4.33063973077778</t>
-  </si>
-  <si>
-    <t>4.3448958336</t>
-  </si>
-  <si>
-    <t>3.83633720919767</t>
-  </si>
-  <si>
-    <t>4.06595383650538</t>
-  </si>
-  <si>
-    <t>9.54541062797826</t>
-  </si>
-  <si>
-    <t>3.85109427665152</t>
-  </si>
-  <si>
-    <t>276.859534848761</t>
-  </si>
-  <si>
-    <t>266.818265571955</t>
-  </si>
-  <si>
-    <t>3.84236111158333</t>
-  </si>
-  <si>
-    <t>6.1722903881411</t>
-  </si>
-  <si>
-    <t>7.70393518481944</t>
-  </si>
-  <si>
-    <t>182.59491080873</t>
-  </si>
-  <si>
-    <t>7.48202099624409</t>
-  </si>
-  <si>
-    <t>8.94313725454902</t>
-  </si>
-  <si>
-    <t>7.15510510510811</t>
-  </si>
-  <si>
-    <t>13.9653645838516</t>
-  </si>
-  <si>
-    <t>10.0906462589796</t>
-  </si>
-  <si>
-    <t>6.01813725507353</t>
-  </si>
-  <si>
-    <t>202.713315756764</t>
-  </si>
-  <si>
-    <t>194.481070131324</t>
-  </si>
-  <si>
-    <t>6.06666666678505</t>
-  </si>
-  <si>
-    <t>13.8326023387193</t>
-  </si>
-  <si>
-    <t>10.1318352052809</t>
-  </si>
-  <si>
-    <t>6.16029810278862</t>
-  </si>
-  <si>
-    <t>7.54854497374603</t>
-  </si>
-  <si>
-    <t>8.83858024712037</t>
-  </si>
-  <si>
-    <t>7.09672131166393</t>
-  </si>
-  <si>
-    <t>13.4698005695128</t>
-  </si>
-  <si>
-    <t>10.2445035468617</t>
-  </si>
-  <si>
-    <t>198.893876668048</t>
-  </si>
-  <si>
-    <t>7.98000000016296</t>
-  </si>
-  <si>
-    <t>18.521634615625</t>
-  </si>
-  <si>
-    <t>6.41540616321008</t>
-  </si>
-  <si>
-    <t>8.02057057015315</t>
-  </si>
-  <si>
-    <t>39.3265232965376</t>
-  </si>
-  <si>
-    <t>199.592207928893</t>
-  </si>
-  <si>
-    <t>7.99005167929457</t>
-  </si>
-  <si>
-    <t>18.0355654761607</t>
-  </si>
-  <si>
-    <t>5.47909090856364</t>
-  </si>
-  <si>
-    <t>10.7447732577774</t>
-  </si>
-  <si>
-    <t>21.2592803034091</t>
-  </si>
-  <si>
-    <t>191.539651060249</t>
-  </si>
-  <si>
-    <t>8.10109289532787</t>
-  </si>
-  <si>
-    <t>16.1942652338495</t>
-  </si>
-  <si>
-    <t>201.768172563933</t>
-  </si>
-  <si>
-    <t>8.03773584901887</t>
-  </si>
-  <si>
-    <t>33.8978354993636</t>
-  </si>
-  <si>
-    <t>2.20148936199574</t>
-  </si>
-  <si>
-    <t>4.06666666661792</t>
-  </si>
-  <si>
-    <t>7.26268518508889</t>
-  </si>
-  <si>
-    <t>3.68869918737561</t>
-  </si>
-  <si>
-    <t>4.36434294895673</t>
-  </si>
-  <si>
-    <t>22.5262781179141</t>
-  </si>
-  <si>
-    <t>2.23658008638312</t>
-  </si>
-  <si>
-    <t>202.69904142061</t>
-  </si>
-  <si>
-    <t>7.22668997655245</t>
-  </si>
-  <si>
-    <t>5.04799999918667</t>
-  </si>
-  <si>
-    <t>245.30289961324</t>
-  </si>
-  <si>
-    <t>204.959206348128</t>
-  </si>
-  <si>
-    <t>2.03189354298429</t>
-  </si>
-  <si>
-    <t>3.21757340257513</t>
-  </si>
-  <si>
-    <t>5.08559670772531</t>
-  </si>
-  <si>
-    <t>3.69268916147239</t>
-  </si>
-  <si>
-    <t>3.57881944439583</t>
-  </si>
-  <si>
-    <t>0.704536295104156</t>
-  </si>
-  <si>
-    <t>5.69571078427206</t>
-  </si>
-  <si>
-    <t>192.292787642059</t>
-  </si>
-  <si>
-    <t>17.2746732029412</t>
-  </si>
-  <si>
-    <t>10.9036549709474</t>
-  </si>
-  <si>
-    <t>13.0414383649158</t>
-  </si>
-  <si>
-    <t>43.753888889</t>
-  </si>
-  <si>
-    <t>5.71952736323881</t>
-  </si>
-  <si>
-    <t>9.66549479217188</t>
-  </si>
-  <si>
-    <t>17.9218855214141</t>
-  </si>
-  <si>
-    <t>9.4157657660991</t>
-  </si>
-  <si>
-    <t>13.4087374757048</t>
-  </si>
-  <si>
-    <t>1.04227537347761</t>
-  </si>
-  <si>
-    <t>5.67052341592562</t>
-  </si>
-  <si>
-    <t>9.70452196433333</t>
-  </si>
-  <si>
-    <t>17.0025157233019</t>
-  </si>
-  <si>
-    <t>10.3767973858039</t>
-  </si>
-  <si>
-    <t>13.373059930244</t>
-  </si>
-  <si>
-    <t>34.3492337172414</t>
-  </si>
-  <si>
-    <t>0.531863979833753</t>
-  </si>
-  <si>
-    <t>0.73416458880798</t>
-  </si>
-  <si>
-    <t>1.1306538044373</t>
-  </si>
-  <si>
-    <t>1.05608695611014</t>
-  </si>
-  <si>
-    <t>0.730195473283951</t>
-  </si>
-  <si>
-    <t>4.46006535978823</t>
-  </si>
-  <si>
-    <t>197.797886083607</t>
-  </si>
-  <si>
-    <t>159.881782572585</t>
-  </si>
-  <si>
-    <t>21.4872659168539</t>
-  </si>
-  <si>
-    <t>9.5173076931282</t>
-  </si>
-  <si>
-    <t>10.7748015879524</t>
-  </si>
-  <si>
-    <t>37.8563596496053</t>
-  </si>
-  <si>
-    <t>171.058227753462</t>
-  </si>
-  <si>
-    <t>10.7135416673646</t>
-  </si>
-  <si>
-    <t>19.0749063674157</t>
-  </si>
-  <si>
-    <t>8.48160919524138</t>
-  </si>
-  <si>
-    <t>11.8044193231004</t>
-  </si>
-  <si>
-    <t>28.1448717955385</t>
-  </si>
-  <si>
-    <t>7.23807189503922</t>
-  </si>
-  <si>
-    <t>10.6628930815472</t>
-  </si>
-  <si>
-    <t>21.7069047615714</t>
-  </si>
-  <si>
-    <t>6.63253000008454</t>
-  </si>
-  <si>
-    <t>164.868337392922</t>
-  </si>
-  <si>
-    <t>30.0820312507812</t>
-  </si>
-  <si>
-    <t>7.14511111125333</t>
-  </si>
-  <si>
-    <t>189.985167639029</t>
-  </si>
-  <si>
-    <t>22.9394144139189</t>
-  </si>
-  <si>
-    <t>7.41759089244439</t>
-  </si>
-  <si>
-    <t>11.1371087148234</t>
-  </si>
-  <si>
-    <t>31.3339622632075</t>
+    <t>121.913612565445</t>
+  </si>
+  <si>
+    <t>231.065656565657</t>
+  </si>
+  <si>
+    <t>229.094240837696</t>
+  </si>
+  <si>
+    <t>127.6</t>
+  </si>
+  <si>
+    <t>31.911838790932</t>
+  </si>
+  <si>
+    <t>339.95</t>
+  </si>
+  <si>
+    <t>341.742647058824</t>
+  </si>
+  <si>
+    <t>182.648194045878</t>
+  </si>
+  <si>
+    <t>361.088235294118</t>
+  </si>
+  <si>
+    <t>343.171641791045</t>
+  </si>
+  <si>
+    <t>369.617886178862</t>
+  </si>
+  <si>
+    <t>195.995098039216</t>
+  </si>
+  <si>
+    <t>107.608</t>
+  </si>
+  <si>
+    <t>196.255555555556</t>
+  </si>
+  <si>
+    <t>132.089361702128</t>
+  </si>
+  <si>
+    <t>216.055501574453</t>
+  </si>
+  <si>
+    <t>246.285956706522</t>
+  </si>
+  <si>
+    <t>149.681614349776</t>
+  </si>
+  <si>
+    <t>340.231404958678</t>
+  </si>
+  <si>
+    <t>134.194805194805</t>
+  </si>
+  <si>
+    <t>197.858039059996</t>
+  </si>
+  <si>
+    <t>304.579900377458</t>
+  </si>
+  <si>
+    <t>265.736434108527</t>
+  </si>
+  <si>
+    <t>170.991329099318</t>
+  </si>
+  <si>
+    <t>341.708661417323</t>
+  </si>
+  <si>
+    <t>434.28431372549</t>
+  </si>
+  <si>
+    <t>428.706666666667</t>
+  </si>
+  <si>
+    <t>198.934589468531</t>
+  </si>
+  <si>
+    <t>199.536245075497</t>
+  </si>
+  <si>
+    <t>191.50819784074</t>
+  </si>
+  <si>
+    <t>259.708661417323</t>
+  </si>
+  <si>
+    <t>259.838383838384</t>
+  </si>
+  <si>
+    <t>277.014862389702</t>
+  </si>
+  <si>
+    <t>166.452196382429</t>
+  </si>
+  <si>
+    <t>452.912698412698</t>
+  </si>
+  <si>
+    <t>202.757257657316</t>
+  </si>
+  <si>
+    <t>448.92125984252</t>
+  </si>
+  <si>
+    <t>523.18320610687</t>
+  </si>
+  <si>
+    <t>193.054404145078</t>
+  </si>
+  <si>
+    <t>44.0498753117207</t>
+  </si>
+  <si>
+    <t>582.271317829457</t>
+  </si>
+  <si>
+    <t>503.333333333333</t>
+  </si>
+  <si>
+    <t>107.572944297082</t>
+  </si>
+  <si>
+    <t>1.59542320453377</t>
+  </si>
+  <si>
+    <t>192.294981536032</t>
+  </si>
+  <si>
+    <t>13.1748344335882</t>
+  </si>
+  <si>
+    <t>579.9296875</t>
+  </si>
+  <si>
+    <t>209.339130434783</t>
+  </si>
+  <si>
+    <t>279.701030927835</t>
+  </si>
+  <si>
+    <t>207.754385964912</t>
+  </si>
+  <si>
+    <t>244</t>
+  </si>
+  <si>
+    <t>387.404109589041</t>
+  </si>
+  <si>
+    <t>97.598971722365</t>
+  </si>
+  <si>
+    <t>393.772727272727</t>
+  </si>
+  <si>
+    <t>202.655971957122</t>
+  </si>
+  <si>
+    <t>642.8125</t>
+  </si>
+  <si>
+    <t>639.77358490566</t>
+  </si>
+  <si>
+    <t>189.98516776694</t>
+  </si>
+  <si>
+    <t>478.8</t>
+  </si>
+  <si>
+    <t>479.403100775194</t>
+  </si>
+  <si>
+    <t>383.884615384615</t>
+  </si>
+  <si>
+    <t>260.69375</t>
+  </si>
+  <si>
+    <t>266.785739364158</t>
+  </si>
+  <si>
+    <t>159.866386096232</t>
+  </si>
+  <si>
+    <t>194.459038851867</t>
+  </si>
+  <si>
+    <t>536.588235294118</t>
+  </si>
+  <si>
+    <t>530.314814814815</t>
+  </si>
+  <si>
+    <t>157.475409836066</t>
+  </si>
+  <si>
+    <t>486.065573770492</t>
+  </si>
+  <si>
+    <t>107.550819672131</t>
+  </si>
+  <si>
+    <t>221.42044525125</t>
+  </si>
+  <si>
+    <t>662.722222222222</t>
+  </si>
+  <si>
+    <t>17.121027138149</t>
+  </si>
+  <si>
+    <t>369.506849315069</t>
+  </si>
+  <si>
+    <t>305.135802469136</t>
+  </si>
+  <si>
+    <t>373.104575163399</t>
+  </si>
+  <si>
+    <t>67.8392282958199</t>
+  </si>
+  <si>
+    <t>1075.31313131313</t>
+  </si>
+  <si>
+    <t>291.323863636364</t>
+  </si>
+  <si>
+    <t>6.55287031564741</t>
+  </si>
+  <si>
+    <t>1020.15094339623</t>
+  </si>
+  <si>
+    <t>230.18023255814</t>
+  </si>
+  <si>
+    <t>230.541666666667</t>
+  </si>
+  <si>
+    <t>222.98955613577</t>
+  </si>
+  <si>
+    <t>435.761111111111</t>
+  </si>
+  <si>
+    <t>433.601398601399</t>
+  </si>
+  <si>
+    <t>775.579831932773</t>
+  </si>
+  <si>
+    <t>1144.49438202247</t>
+  </si>
+  <si>
+    <t>1289.23595505618</t>
+  </si>
+  <si>
+    <t>607.798245614035</t>
+  </si>
+  <si>
+    <t>127.59649122807</t>
+  </si>
+  <si>
+    <t>425.803278688525</t>
+  </si>
+  <si>
+    <t>696.925</t>
+  </si>
+  <si>
+    <t>364</t>
+  </si>
+  <si>
+    <t>1302.41428571429</t>
+  </si>
+  <si>
+    <t>1036.48039215686</t>
+  </si>
+  <si>
+    <t>1376.36486486486</t>
+  </si>
+  <si>
+    <t>429.306306306306</t>
+  </si>
+  <si>
+    <t>129.151515151515</t>
+  </si>
+  <si>
+    <t>370.337423312883</t>
+  </si>
+  <si>
+    <t>4.06374969647054</t>
+  </si>
+  <si>
+    <t>1111.29807692308</t>
+  </si>
+  <si>
+    <t>1082.13392857143</t>
+  </si>
+  <si>
+    <t>971.655913978495</t>
+  </si>
+  <si>
+    <t>673.481481481482</t>
+  </si>
+  <si>
+    <t>592.348214285714</t>
+  </si>
+  <si>
+    <t>372.94375</t>
+  </si>
+  <si>
+    <t>622.491228070175</t>
+  </si>
+  <si>
+    <t>352.56050955414</t>
+  </si>
+  <si>
+    <t>308.406862745098</t>
+  </si>
+  <si>
+    <t>384.783783783784</t>
+  </si>
+  <si>
+    <t>829.956140350877</t>
+  </si>
+  <si>
+    <t>837.921875</t>
+  </si>
+  <si>
+    <t>323.641104294479</t>
+  </si>
+  <si>
+    <t>214.84776119403</t>
+  </si>
+  <si>
+    <t>808.188034188034</t>
+  </si>
+  <si>
+    <t>221.561349693252</t>
+  </si>
+  <si>
+    <t>63.3652173913043</t>
+  </si>
+  <si>
+    <t>572.724637681159</t>
+  </si>
+  <si>
+    <t>564.945945945946</t>
+  </si>
+  <si>
+    <t>462.236111111111</t>
+  </si>
+  <si>
+    <t>302.88</t>
+  </si>
+  <si>
+    <t>184.309210526316</t>
+  </si>
+  <si>
+    <t>412.244897959184</t>
+  </si>
+  <si>
+    <t>654.219298245614</t>
+  </si>
+  <si>
+    <t>637.635514018692</t>
+  </si>
+  <si>
+    <t>221.321951219512</t>
+  </si>
+  <si>
+    <t>753.342105263158</t>
+  </si>
+  <si>
+    <t>622.607843137255</t>
+  </si>
+  <si>
+    <t>7.41579523582316</t>
+  </si>
+  <si>
+    <t>414.65811965812</t>
+  </si>
+  <si>
+    <t>666.201834862385</t>
+  </si>
+  <si>
+    <t>357.629834254144</t>
+  </si>
+  <si>
+    <t>370.04375</t>
+  </si>
+  <si>
+    <t>508.896551724138</t>
+  </si>
+  <si>
+    <t>328.745454545455</t>
+  </si>
+  <si>
+    <t>228.005235602094</t>
+  </si>
+  <si>
+    <t>204.720238095238</t>
+  </si>
+  <si>
+    <t>410.647058823529</t>
+  </si>
+  <si>
+    <t>384.924369747899</t>
+  </si>
+  <si>
+    <t>6.62944151546392</t>
+  </si>
+  <si>
+    <t>201.761443404692</t>
+  </si>
+  <si>
+    <t>614.670212765957</t>
+  </si>
+  <si>
+    <t>607.910112359551</t>
+  </si>
+  <si>
+    <t>605.438775510204</t>
+  </si>
+  <si>
+    <t>157.428571428571</t>
+  </si>
+  <si>
+    <t>214.729166666667</t>
+  </si>
+  <si>
+    <t>571.038461538462</t>
+  </si>
+  <si>
+    <t>43.8117283950617</t>
+  </si>
+  <si>
+    <t>120.888888888889</t>
+  </si>
+  <si>
+    <t>13.3723675120317</t>
+  </si>
+  <si>
+    <t>13.0429962253792</t>
+  </si>
+  <si>
+    <t>13.4094550632502</t>
+  </si>
+  <si>
+    <t>245.299160041202</t>
+  </si>
+  <si>
+    <t>9.03570011793851</t>
+  </si>
+  <si>
+    <t>261.860576923077</t>
+  </si>
+  <si>
+    <t>384.84347826087</t>
+  </si>
+  <si>
+    <t>648.414634146341</t>
+  </si>
+  <si>
+    <t>211.439704046071</t>
+  </si>
+  <si>
+    <t>646.488095238095</t>
+  </si>
+  <si>
+    <t>11.8032525674728</t>
+  </si>
+  <si>
+    <t>201.544792490347</t>
+  </si>
+  <si>
+    <t>196.655697851129</t>
+  </si>
+  <si>
+    <t>164.851344199938</t>
+  </si>
+  <si>
+    <t>204.955434287673</t>
+  </si>
+  <si>
+    <t>482.264150943396</t>
+  </si>
+  <si>
+    <t>11.1407480861216</t>
+  </si>
+  <si>
+    <t>481.234234234234</t>
+  </si>
+  <si>
+    <t>7.00063754975647</t>
+  </si>
+  <si>
+    <t>374.786885245902</t>
+  </si>
+  <si>
+    <t>10.743644891555</t>
+  </si>
+  <si>
+    <t>199.173768540956</t>
+  </si>
+  <si>
+    <t>97.7767584097859</t>
+  </si>
+  <si>
+    <t>261.105263157895</t>
+  </si>
+  <si>
+    <t>55.8188976377953</t>
+  </si>
+  <si>
+    <t>819.392405063291</t>
+  </si>
+  <si>
+    <t>819.305882352941</t>
+  </si>
+  <si>
+    <t>825.632183908046</t>
+  </si>
+  <si>
+    <t>357.6</t>
+  </si>
+  <si>
+    <t>204.997866451797</t>
+  </si>
+  <si>
+    <t>171.519831173562</t>
+  </si>
+  <si>
+    <t>128.957055214724</t>
+  </si>
+  <si>
+    <t>185.657084067529</t>
+  </si>
+  <si>
+    <t>215.880177996163</t>
+  </si>
+  <si>
+    <t>857.34375</t>
+  </si>
+  <si>
+    <t>618.522222222222</t>
+  </si>
+  <si>
+    <t>511.021276595745</t>
+  </si>
+  <si>
+    <t>631.453333333333</t>
+  </si>
+  <si>
+    <t>962.238095238095</t>
+  </si>
+  <si>
+    <t>11.0929000490908</t>
+  </si>
+  <si>
+    <t>150.777046090288</t>
+  </si>
+  <si>
+    <t>305.153311252411</t>
+  </si>
+  <si>
+    <t>sd</t>
   </si>
   <si>
     <t>rate</t>
   </si>
   <si>
-    <t>sd</t>
-  </si>
-  <si>
     <t>scale</t>
   </si>
   <si>
-    <t>56.7683761444105</t>
-  </si>
-  <si>
-    <t>0.470691946365614</t>
-  </si>
-  <si>
-    <t>15.9185701409608</t>
-  </si>
-  <si>
-    <t>12.2152216079202</t>
-  </si>
-  <si>
-    <t>1.30347482204318</t>
-  </si>
-  <si>
-    <t>0.0550103060471556</t>
-  </si>
-  <si>
-    <t>0.310709332811521</t>
-  </si>
-  <si>
-    <t>0.496197656139506</t>
-  </si>
-  <si>
-    <t>9.54587956534308</t>
-  </si>
-  <si>
-    <t>12.058917298138</t>
-  </si>
-  <si>
-    <t>0.432639306594168</t>
-  </si>
-  <si>
-    <t>128.524698621948</t>
-  </si>
-  <si>
-    <t>0.298809865725741</t>
-  </si>
-  <si>
-    <t>0.464016604709744</t>
-  </si>
-  <si>
-    <t>13.1574988586346</t>
-  </si>
-  <si>
-    <t>11.8653975513348</t>
-  </si>
-  <si>
-    <t>32.3785997365864</t>
-  </si>
-  <si>
-    <t>107.587453196172</t>
-  </si>
-  <si>
-    <t>0.0798431033526077</t>
-  </si>
-  <si>
-    <t>9.55999879664594</t>
-  </si>
-  <si>
-    <t>4.86262439261421</t>
-  </si>
-  <si>
-    <t>49.6158889558108</t>
-  </si>
-  <si>
-    <t>49.6904636406331</t>
-  </si>
-  <si>
-    <t>121.336831704275</t>
-  </si>
-  <si>
-    <t>0.118076424906179</t>
-  </si>
-  <si>
-    <t>3.04522965938279</t>
-  </si>
-  <si>
-    <t>0.156271637437327</t>
-  </si>
-  <si>
-    <t>0.124677347434405</t>
-  </si>
-  <si>
-    <t>12.5682363493324</t>
-  </si>
-  <si>
-    <t>0.165333055795602</t>
-  </si>
-  <si>
-    <t>0.374501388315989</t>
-  </si>
-  <si>
-    <t>1.49887042902794</t>
-  </si>
-  <si>
-    <t>11.2886825082001</t>
-  </si>
-  <si>
-    <t>17.3954836744748</t>
-  </si>
-  <si>
-    <t>12.5093679016519</t>
-  </si>
-  <si>
-    <t>18.2555575980762</t>
-  </si>
-  <si>
-    <t>38.3140194299984</t>
-  </si>
-  <si>
-    <t>0.608369466369995</t>
-  </si>
-  <si>
-    <t>20.0132785582083</t>
-  </si>
-  <si>
-    <t>16.1529362693304</t>
-  </si>
-  <si>
-    <t>15.3947395547036</t>
-  </si>
-  <si>
-    <t>18.5935269053997</t>
-  </si>
-  <si>
-    <t>0.369927697286469</t>
-  </si>
-  <si>
-    <t>5.33990085517322</t>
-  </si>
-  <si>
-    <t>0.811665314477193</t>
-  </si>
-  <si>
-    <t>15.5084090908168</t>
-  </si>
-  <si>
-    <t>11.3596838144872</t>
-  </si>
-  <si>
-    <t>0.806662429848297</t>
-  </si>
-  <si>
-    <t>0.163415199644243</t>
-  </si>
-  <si>
-    <t>0.212398165139284</t>
-  </si>
-  <si>
-    <t>4.53611360172131</t>
-  </si>
-  <si>
-    <t>12.3219147167325</t>
-  </si>
-  <si>
-    <t>4.3723154305283</t>
-  </si>
-  <si>
-    <t>1.43180658271555</t>
-  </si>
-  <si>
-    <t>125.851539701197</t>
-  </si>
-  <si>
-    <t>0.202412690129474</t>
-  </si>
-  <si>
-    <t>1.34805247693214</t>
-  </si>
-  <si>
-    <t>13.9399141975183</t>
-  </si>
-  <si>
-    <t>0.237428112509434</t>
-  </si>
-  <si>
-    <t>45.3385632893036</t>
-  </si>
-  <si>
-    <t>0.222957306976995</t>
-  </si>
-  <si>
-    <t>5.50636916063365</t>
-  </si>
-  <si>
-    <t>0.438432617696467</t>
-  </si>
-  <si>
-    <t>13.5343832717322</t>
-  </si>
-  <si>
-    <t>8.87122092924435</t>
-  </si>
-  <si>
-    <t>33.3709611931085</t>
-  </si>
-  <si>
-    <t>0.219828231244145</t>
-  </si>
-  <si>
-    <t>0.357901841548052</t>
-  </si>
-  <si>
-    <t>0.44781874096099</t>
-  </si>
-  <si>
-    <t>13.0973174002961</t>
-  </si>
-  <si>
-    <t>9.39540397194542</t>
-  </si>
-  <si>
-    <t>0.459518981260704</t>
-  </si>
-  <si>
-    <t>0.108673400918642</t>
-  </si>
-  <si>
-    <t>0.106197034557971</t>
-  </si>
-  <si>
-    <t>0.109642000471914</t>
-  </si>
-  <si>
-    <t>4.66147117186799</t>
-  </si>
-  <si>
-    <t>10.2184174780603</t>
-  </si>
-  <si>
-    <t>3.64068978149686</t>
-  </si>
-  <si>
-    <t>0.218608906380774</t>
-  </si>
-  <si>
-    <t>0.276712169163833</t>
-  </si>
-  <si>
-    <t>0.253859082695417</t>
-  </si>
-  <si>
-    <t>0.225015836786783</t>
-  </si>
-  <si>
-    <t>0.801272338761946</t>
-  </si>
-  <si>
-    <t>16.9188909756005</t>
-  </si>
-  <si>
-    <t>0.216654190544118</t>
-  </si>
-  <si>
-    <t>63.6173471460084</t>
-  </si>
-  <si>
-    <t>61.2129767203318</t>
-  </si>
-  <si>
-    <t>0.225241303394065</t>
-  </si>
-  <si>
-    <t>10.3645927383476</t>
-  </si>
-  <si>
-    <t>13.7033011681031</t>
-  </si>
-  <si>
-    <t>30.2853003129352</t>
-  </si>
-  <si>
-    <t>0.591166403915616</t>
-  </si>
-  <si>
-    <t>0.643720094896676</t>
-  </si>
-  <si>
-    <t>8.00240510459697</t>
-  </si>
-  <si>
-    <t>18.8275211826067</t>
-  </si>
-  <si>
-    <t>8.50172553793466</t>
-  </si>
-  <si>
-    <t>0.45672386990793</t>
-  </si>
-  <si>
-    <t>27.1109215562643</t>
-  </si>
-  <si>
-    <t>22.0046716950944</t>
-  </si>
-  <si>
-    <t>0.429004256875549</t>
-  </si>
-  <si>
-    <t>18.4487657061876</t>
-  </si>
-  <si>
-    <t>8.89260716338354</t>
-  </si>
-  <si>
-    <t>0.428899141339157</t>
-  </si>
-  <si>
-    <t>0.537709476636044</t>
-  </si>
-  <si>
-    <t>0.599453832816787</t>
-  </si>
-  <si>
-    <t>7.66065832531722</t>
-  </si>
-  <si>
-    <t>18.2046806761851</t>
-  </si>
-  <si>
-    <t>8.71572869282099</t>
-  </si>
-  <si>
-    <t>36.790248973226</t>
-  </si>
-  <si>
-    <t>0.53901983929583</t>
-  </si>
-  <si>
-    <t>20.4389525001656</t>
-  </si>
-  <si>
-    <t>7.76289239949399</t>
-  </si>
-  <si>
-    <t>0.509292797666908</t>
-  </si>
-  <si>
-    <t>158.939113571229</t>
-  </si>
-  <si>
-    <t>36.5795346460324</t>
-  </si>
-  <si>
-    <t>0.628646192236681</t>
-  </si>
-  <si>
-    <t>19.8736519322278</t>
-  </si>
-  <si>
-    <t>0.342586981286243</t>
-  </si>
-  <si>
-    <t>1.28527871610507</t>
-  </si>
-  <si>
-    <t>95.4766169630484</t>
-  </si>
-  <si>
-    <t>34.4779075316857</t>
-  </si>
-  <si>
-    <t>0.569359311878767</t>
-  </si>
-  <si>
-    <t>17.669487584332</t>
-  </si>
-  <si>
-    <t>36.9019694113771</t>
-  </si>
-  <si>
-    <t>0.553421328293409</t>
-  </si>
-  <si>
-    <t>143.135385851617</t>
-  </si>
-  <si>
-    <t>0.155707503873298</t>
-  </si>
-  <si>
-    <t>0.279590521196864</t>
-  </si>
-  <si>
-    <t>8.87346689313891</t>
-  </si>
-  <si>
-    <t>9.24464502918416</t>
-  </si>
-  <si>
-    <t>4.18659671878241</t>
-  </si>
-  <si>
-    <t>120.983688400037</t>
-  </si>
-  <si>
-    <t>0.138757082628955</t>
-  </si>
-  <si>
-    <t>49.4970000816921</t>
-  </si>
-  <si>
-    <t>8.62381848695019</t>
-  </si>
-  <si>
-    <t>12.6526122203764</t>
-  </si>
-  <si>
-    <t>59.5335884230287</t>
-  </si>
-  <si>
-    <t>34.4171079633811</t>
-  </si>
-  <si>
-    <t>0.265428721588862</t>
-  </si>
-  <si>
-    <t>0.195325072032291</t>
-  </si>
-  <si>
-    <t>6.6258194374274</t>
-  </si>
-  <si>
-    <t>9.82018480257954</t>
-  </si>
-  <si>
-    <t>4.59667092182138</t>
-  </si>
-  <si>
-    <t>0.0663135959518876</t>
-  </si>
-  <si>
-    <t>0.396383757301506</t>
-  </si>
-  <si>
-    <t>20.0146142935389</t>
-  </si>
-  <si>
-    <t>14.2630813197153</t>
-  </si>
-  <si>
-    <t>16.9946260221784</t>
-  </si>
-  <si>
-    <t>1.2602293654028</t>
-  </si>
-  <si>
-    <t>161.522090163379</t>
-  </si>
-  <si>
-    <t>0.381601789822696</t>
-  </si>
-  <si>
-    <t>0.691933882944581</t>
-  </si>
-  <si>
-    <t>15.3951088049748</t>
-  </si>
-  <si>
-    <t>14.4962661029873</t>
-  </si>
-  <si>
-    <t>1.31500407349574</t>
-  </si>
-  <si>
-    <t>0.0418357574669746</t>
-  </si>
-  <si>
-    <t>0.387658320305933</t>
-  </si>
-  <si>
-    <t>0.658368091579781</t>
-  </si>
-  <si>
-    <t>14.1208505888247</t>
-  </si>
-  <si>
-    <t>16.148066780938</t>
-  </si>
-  <si>
-    <t>1.31688309016377</t>
-  </si>
-  <si>
-    <t>134.913151002997</t>
-  </si>
-  <si>
-    <t>0.0298788760819682</t>
-  </si>
-  <si>
-    <t>0.0378762411697326</t>
-  </si>
-  <si>
-    <t>3.39885995364668</t>
-  </si>
-  <si>
-    <t>5.57167641604382</t>
-  </si>
-  <si>
-    <t>0.040355028477743</t>
-  </si>
-  <si>
-    <t>56.2549852664745</t>
-  </si>
-  <si>
-    <t>27.5246051041139</t>
-  </si>
-  <si>
-    <t>14.9888924500795</t>
-  </si>
-  <si>
-    <t>19.7574359046756</t>
-  </si>
-  <si>
-    <t>11.5320115108248</t>
-  </si>
-  <si>
-    <t>0.787780746931593</t>
-  </si>
-  <si>
-    <t>144.04635541324</t>
-  </si>
-  <si>
-    <t>24.1380126307762</t>
-  </si>
-  <si>
-    <t>0.830231423273408</t>
-  </si>
-  <si>
-    <t>16.2822408716185</t>
-  </si>
-  <si>
-    <t>9.06910958174289</t>
-  </si>
-  <si>
-    <t>1.0267957013844</t>
-  </si>
-  <si>
-    <t>110.851859528523</t>
-  </si>
-  <si>
-    <t>0.564188050732833</t>
-  </si>
-  <si>
-    <t>0.808446899065418</t>
-  </si>
-  <si>
-    <t>20.0280088579832</t>
-  </si>
-  <si>
-    <t>0.830751532559814</t>
-  </si>
-  <si>
-    <t>15.394837232898</t>
-  </si>
-  <si>
-    <t>111.995530288951</t>
-  </si>
-  <si>
-    <t>0.578419131534687</t>
-  </si>
-  <si>
-    <t>17.7926912502247</t>
-  </si>
-  <si>
-    <t>21.2571965505843</t>
-  </si>
-  <si>
-    <t>0.958638828351828</t>
-  </si>
-  <si>
-    <t>0.975382010136772</t>
-  </si>
-  <si>
-    <t>122.295999686777</t>
+    <t>15.9257233074546</t>
+  </si>
+  <si>
+    <t>12.9992514284567</t>
+  </si>
+  <si>
+    <t>13.1165344007269</t>
+  </si>
+  <si>
+    <t>7.08458547491322</t>
+  </si>
+  <si>
+    <t>1.792732570611</t>
+  </si>
+  <si>
+    <t>22.4700832854964</t>
+  </si>
+  <si>
+    <t>23.7830254357059</t>
+  </si>
+  <si>
+    <t>0.504898378511851</t>
+  </si>
+  <si>
+    <t>27.4034322099589</t>
+  </si>
+  <si>
+    <t>22.8961073793214</t>
+  </si>
+  <si>
+    <t>25.7339484504192</t>
+  </si>
+  <si>
+    <t>13.3774384066503</t>
+  </si>
+  <si>
+    <t>6.52040407745819</t>
+  </si>
+  <si>
+    <t>13.1896938816395</t>
+  </si>
+  <si>
+    <t>9.34245022402156</t>
+  </si>
+  <si>
+    <t>0.638608044157221</t>
+  </si>
+  <si>
+    <t>0.945651888698233</t>
+  </si>
+  <si>
+    <t>9.80491196998557</t>
+  </si>
+  <si>
+    <t>23.2594991989245</t>
+  </si>
+  <si>
+    <t>8.32542493130088</t>
+  </si>
+  <si>
+    <t>0.458881147304121</t>
+  </si>
+  <si>
+    <t>2.09908997135384</t>
+  </si>
+  <si>
+    <t>17.9285919410824</t>
+  </si>
+  <si>
+    <t>0.402134070793537</t>
+  </si>
+  <si>
+    <t>22.1956618575525</t>
+  </si>
+  <si>
+    <t>33.8512830153294</t>
+  </si>
+  <si>
+    <t>34.7051478730301</t>
+  </si>
+  <si>
+    <t>0.613296732852139</t>
+  </si>
+  <si>
+    <t>0.609483760779484</t>
+  </si>
+  <si>
+    <t>0.574531567009342</t>
+  </si>
+  <si>
+    <t>18.6425599929325</t>
+  </si>
+  <si>
+    <t>16.6027301337181</t>
+  </si>
+  <si>
+    <t>1.06088989579706</t>
+  </si>
+  <si>
+    <t>182.713779541101</t>
+  </si>
+  <si>
+    <t>32.2625685712376</t>
+  </si>
+  <si>
+    <t>0.451934541813077</t>
+  </si>
+  <si>
+    <t>35.4699842717694</t>
+  </si>
+  <si>
+    <t>320.39405131012</t>
+  </si>
+  <si>
+    <t>11.7195043035805</t>
+  </si>
+  <si>
+    <t>2.27257447568723</t>
+  </si>
+  <si>
+    <t>39.5020854984701</t>
+  </si>
+  <si>
+    <t>36.5021680004606</t>
+  </si>
+  <si>
+    <t>6.37182209382102</t>
+  </si>
+  <si>
+    <t>333.573387831127</t>
+  </si>
+  <si>
+    <t>0.333578935000095</t>
+  </si>
+  <si>
+    <t>0.0249865367686194</t>
+  </si>
+  <si>
+    <t>41.5160329710384</t>
+  </si>
+  <si>
+    <t>12.7438898958928</t>
+  </si>
+  <si>
+    <t>21.4741104965398</t>
+  </si>
+  <si>
+    <t>12.1447613933467</t>
+  </si>
+  <si>
+    <t>16.7754312713451</t>
+  </si>
+  <si>
+    <t>28.2415167932339</t>
+  </si>
+  <si>
+    <t>4.79058620278307</t>
+  </si>
+  <si>
+    <t>27.8409962892883</t>
+  </si>
+  <si>
+    <t>0.824774450622363</t>
+  </si>
+  <si>
+    <t>49.8138853843317</t>
+  </si>
+  <si>
+    <t>48.5068139579997</t>
+  </si>
+  <si>
+    <t>0.296544854376431</t>
+  </si>
+  <si>
+    <t>32.3411903397601</t>
+  </si>
+  <si>
+    <t>37.7187715444088</t>
+  </si>
+  <si>
+    <t>29.7718593552276</t>
+  </si>
+  <si>
+    <t>15.2315449294384</t>
+  </si>
+  <si>
+    <t>1.02009647131378</t>
+  </si>
+  <si>
+    <t>0.249794208886339</t>
+  </si>
+  <si>
+    <t>0.366698577198695</t>
+  </si>
+  <si>
+    <t>38.623205698834</t>
+  </si>
+  <si>
+    <t>35.9672299791507</t>
+  </si>
+  <si>
+    <t>9.37629826180511</t>
+  </si>
+  <si>
+    <t>34.1615587103874</t>
+  </si>
+  <si>
+    <t>6.57852001271151</t>
+  </si>
+  <si>
+    <t>0.33355445178253</t>
+  </si>
+  <si>
+    <t>48.6999188784276</t>
+  </si>
+  <si>
+    <t>677.310814373503</t>
+  </si>
+  <si>
+    <t>26.3059570771416</t>
+  </si>
+  <si>
+    <t>397.54916624536</t>
+  </si>
+  <si>
+    <t>26.8691244432885</t>
+  </si>
+  <si>
+    <t>203.931597205912</t>
+  </si>
+  <si>
+    <t>923.706528305191</t>
+  </si>
+  <si>
+    <t>272.166816114976</t>
+  </si>
+  <si>
+    <t>0.0224729804776911</t>
+  </si>
+  <si>
+    <t>847.251035312871</t>
+  </si>
+  <si>
+    <t>13.5009501798899</t>
+  </si>
+  <si>
+    <t>13.5144782004984</t>
+  </si>
+  <si>
+    <t>573.599927802925</t>
+  </si>
+  <si>
+    <t>532.408013587417</t>
+  </si>
+  <si>
+    <t>517.429109226537</t>
+  </si>
+  <si>
+    <t>955.114208453569</t>
+  </si>
+  <si>
+    <t>976.934452317934</t>
+  </si>
+  <si>
+    <t>1185.44615431265</t>
+  </si>
+  <si>
+    <t>572.752773888457</t>
+  </si>
+  <si>
+    <t>7.48064086081664</t>
+  </si>
+  <si>
+    <t>459.639499496559</t>
+  </si>
+  <si>
+    <t>789.449931518776</t>
+  </si>
+  <si>
+    <t>25.7402553923529</t>
+  </si>
+  <si>
+    <t>1201.68053150408</t>
+  </si>
+  <si>
+    <t>855.784879172011</t>
+  </si>
+  <si>
+    <t>1275.43179306677</t>
+  </si>
+  <si>
+    <t>480.144306250835</t>
+  </si>
+  <si>
+    <t>279.688270326645</t>
+  </si>
+  <si>
+    <t>621.875564268167</t>
+  </si>
+  <si>
+    <t>0.0133438674550318</t>
+  </si>
+  <si>
+    <t>1226.33714996363</t>
+  </si>
+  <si>
+    <t>1192.41911597163</t>
+  </si>
+  <si>
+    <t>1060.16925504692</t>
+  </si>
+  <si>
+    <t>1043.72902047207</t>
+  </si>
+  <si>
+    <t>930.504545450453</t>
+  </si>
+  <si>
+    <t>785.839044007065</t>
+  </si>
+  <si>
+    <t>969.176176166835</t>
+  </si>
+  <si>
+    <t>836.394851878837</t>
+  </si>
+  <si>
+    <t>739.314883001426</t>
+  </si>
+  <si>
+    <t>812.06299632929</t>
+  </si>
+  <si>
+    <t>1106.92594239</t>
+  </si>
+  <si>
+    <t>1129.65127092235</t>
+  </si>
+  <si>
+    <t>754.094180968505</t>
+  </si>
+  <si>
+    <t>613.105048669429</t>
+  </si>
+  <si>
+    <t>1092.28084059394</t>
+  </si>
+  <si>
+    <t>589.211088116063</t>
+  </si>
+  <si>
+    <t>334.3005849666</t>
+  </si>
+  <si>
+    <t>1015.13345855033</t>
+  </si>
+  <si>
+    <t>869.775966161628</t>
+  </si>
+  <si>
+    <t>822.198070098541</t>
+  </si>
+  <si>
+    <t>759.156733224438</t>
+  </si>
+  <si>
+    <t>291.757463566479</t>
+  </si>
+  <si>
+    <t>711.923853145862</t>
+  </si>
+  <si>
+    <t>1019.67756134048</t>
+  </si>
+  <si>
+    <t>681.58102887747</t>
+  </si>
+  <si>
+    <t>554.678701773442</t>
+  </si>
+  <si>
+    <t>923.684373344315</t>
+  </si>
+  <si>
+    <t>968.884006866671</t>
+  </si>
+  <si>
+    <t>0.01597423151069</t>
+  </si>
+  <si>
+    <t>732.913296517295</t>
+  </si>
+  <si>
+    <t>750.562074150164</t>
+  </si>
+  <si>
+    <t>532.273255742223</t>
+  </si>
+  <si>
+    <t>563.724238290263</t>
+  </si>
+  <si>
+    <t>544.146574964486</t>
+  </si>
+  <si>
+    <t>20.5552189186442</t>
+  </si>
+  <si>
+    <t>262.338925846839</t>
+  </si>
+  <si>
+    <t>14.2456867303581</t>
+  </si>
+  <si>
+    <t>723.535037895732</t>
+  </si>
+  <si>
+    <t>465.773543988991</t>
+  </si>
+  <si>
+    <t>0.0138379310510385</t>
+  </si>
+  <si>
+    <t>0.615003390212174</t>
+  </si>
+  <si>
+    <t>522.943721562112</t>
+  </si>
+  <si>
+    <t>533.556429846295</t>
+  </si>
+  <si>
+    <t>510.103532234879</t>
+  </si>
+  <si>
+    <t>9.91998337298787</t>
+  </si>
+  <si>
+    <t>275.800255286271</t>
+  </si>
+  <si>
+    <t>691.920690621731</t>
+  </si>
+  <si>
+    <t>2.4213017058851</t>
+  </si>
+  <si>
+    <t>218.441386889419</t>
+  </si>
+  <si>
+    <t>0.0219472995082919</t>
+  </si>
+  <si>
+    <t>0.0210052836438437</t>
+  </si>
+  <si>
+    <t>0.0219169579922283</t>
+  </si>
+  <si>
+    <t>0.992220770204302</t>
+  </si>
+  <si>
+    <t>0.0217334938290152</t>
+  </si>
+  <si>
+    <t>251.195803155117</t>
+  </si>
+  <si>
+    <t>25.9583583939816</t>
+  </si>
+  <si>
+    <t>48.3997458216245</t>
+  </si>
+  <si>
+    <t>0.539723138928168</t>
+  </si>
+  <si>
+    <t>47.26684482998</t>
+  </si>
+  <si>
+    <t>0.0171127589901224</t>
+  </si>
+  <si>
+    <t>0.309895059900543</t>
+  </si>
+  <si>
+    <t>0.304357649934284</t>
+  </si>
+  <si>
+    <t>0.256558192718871</t>
+  </si>
+  <si>
+    <t>0.556039572420507</t>
+  </si>
+  <si>
+    <t>33.2052797253327</t>
+  </si>
+  <si>
+    <t>0.01626343885391</t>
+  </si>
+  <si>
+    <t>30.5575678702238</t>
+  </si>
+  <si>
+    <t>0.023858673768789</t>
+  </si>
+  <si>
+    <t>27.5711388385697</t>
+  </si>
+  <si>
+    <t>0.0214186779909494</t>
+  </si>
+  <si>
+    <t>0.755546359280727</t>
+  </si>
+  <si>
+    <t>4.81990754663904</t>
+  </si>
+  <si>
+    <t>15.3035762481643</t>
+  </si>
+  <si>
+    <t>2.91187447497757</t>
+  </si>
+  <si>
+    <t>61.0327610140692</t>
+  </si>
+  <si>
+    <t>62.1998720500692</t>
+  </si>
+  <si>
+    <t>58.4444160617057</t>
+  </si>
+  <si>
+    <t>24.8913137459637</t>
+  </si>
+  <si>
+    <t>0.573716399710008</t>
+  </si>
+  <si>
+    <t>0.336447531841185</t>
+  </si>
+  <si>
+    <t>7.35627080541462</t>
+  </si>
+  <si>
+    <t>0.218280353001208</t>
+  </si>
+  <si>
+    <t>0.421121039955863</t>
+  </si>
+  <si>
+    <t>66.0691443560267</t>
+  </si>
+  <si>
+    <t>48.1807309980471</t>
+  </si>
+  <si>
+    <t>36.7727288878547</t>
+  </si>
+  <si>
+    <t>43.3670514971396</t>
+  </si>
+  <si>
+    <t>651.243053505547</t>
+  </si>
+  <si>
+    <t>0.0167383275891625</t>
+  </si>
+  <si>
+    <t>0.174811311759204</t>
+  </si>
+  <si>
+    <t>1.88247884410497</t>
   </si>
 </sst>
 </file>
@@ -1475,22 +1475,22 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
         <v>40</v>
       </c>
       <c r="C3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E3" t="s">
         <v>69</v>
       </c>
       <c r="F3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G3" t="s">
         <v>264</v>
@@ -1498,22 +1498,22 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E4" t="s">
         <v>70</v>
       </c>
       <c r="F4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G4" t="s">
         <v>265</v>
@@ -1521,22 +1521,22 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E5" t="s">
         <v>71</v>
       </c>
       <c r="F5" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G5" t="s">
         <v>266</v>
@@ -1544,10 +1544,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C6" t="s">
         <v>63</v>
@@ -1567,10 +1567,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C7" t="s">
         <v>63</v>
@@ -1590,22 +1590,22 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B8" t="s">
         <v>39</v>
       </c>
       <c r="C8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E8" t="s">
         <v>74</v>
       </c>
       <c r="F8" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G8" t="s">
         <v>269</v>
@@ -1613,7 +1613,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B9" t="s">
         <v>40</v>
@@ -1636,22 +1636,22 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E10" t="s">
         <v>76</v>
       </c>
       <c r="F10" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G10" t="s">
         <v>271</v>
@@ -1659,22 +1659,22 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B11" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E11" t="s">
         <v>77</v>
       </c>
       <c r="F11" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G11" t="s">
         <v>272</v>
@@ -1682,22 +1682,22 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="B12" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E12" t="s">
         <v>78</v>
       </c>
       <c r="F12" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G12" t="s">
         <v>273</v>
@@ -1705,22 +1705,22 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="B13" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E13" t="s">
         <v>79</v>
       </c>
       <c r="F13" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G13" t="s">
         <v>274</v>
@@ -1728,22 +1728,22 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="B14" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E14" t="s">
         <v>80</v>
       </c>
       <c r="F14" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G14" t="s">
         <v>275</v>
@@ -1751,22 +1751,22 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="B15" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E15" t="s">
         <v>81</v>
       </c>
       <c r="F15" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G15" t="s">
         <v>276</v>
@@ -1774,22 +1774,22 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="B16" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E16" t="s">
         <v>82</v>
       </c>
       <c r="F16" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G16" t="s">
         <v>277</v>
@@ -1797,10 +1797,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C17" t="s">
         <v>64</v>
@@ -1820,22 +1820,22 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C18" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D18" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E18" t="s">
         <v>84</v>
       </c>
       <c r="F18" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="G18" t="s">
         <v>279</v>
@@ -1843,22 +1843,22 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="B19" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C19" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D19" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E19" t="s">
         <v>85</v>
       </c>
       <c r="F19" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G19" t="s">
         <v>280</v>
@@ -1866,22 +1866,22 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="B20" t="s">
         <v>39</v>
       </c>
       <c r="C20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D20" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E20" t="s">
         <v>86</v>
       </c>
       <c r="F20" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G20" t="s">
         <v>281</v>
@@ -1889,22 +1889,22 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="B21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C21" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D21" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E21" t="s">
         <v>87</v>
       </c>
       <c r="F21" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G21" t="s">
         <v>282</v>
@@ -1912,10 +1912,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="B22" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C22" t="s">
         <v>64</v>
@@ -1935,10 +1935,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="B23" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C23" t="s">
         <v>64</v>
@@ -1958,22 +1958,22 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="B24" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C24" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D24" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E24" t="s">
         <v>90</v>
       </c>
       <c r="F24" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G24" t="s">
         <v>285</v>
@@ -1981,10 +1981,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="B25" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C25" t="s">
         <v>64</v>
@@ -2004,22 +2004,22 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="B26" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C26" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D26" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E26" t="s">
         <v>92</v>
       </c>
       <c r="F26" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G26" t="s">
         <v>287</v>
@@ -2027,22 +2027,22 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="B27" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C27" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D27" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E27" t="s">
         <v>93</v>
       </c>
       <c r="F27" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G27" t="s">
         <v>288</v>
@@ -2050,22 +2050,22 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="B28" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C28" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D28" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E28" t="s">
         <v>94</v>
       </c>
       <c r="F28" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G28" t="s">
         <v>289</v>
@@ -2073,10 +2073,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="B29" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C29" t="s">
         <v>64</v>
@@ -2096,10 +2096,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="B30" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="C30" t="s">
         <v>64</v>
@@ -2119,10 +2119,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="B31" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="C31" t="s">
         <v>64</v>
@@ -2142,22 +2142,22 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="B32" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C32" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D32" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E32" t="s">
         <v>98</v>
       </c>
       <c r="F32" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G32" t="s">
         <v>293</v>
@@ -2165,10 +2165,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B33" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C33" t="s">
         <v>63</v>
@@ -2188,22 +2188,22 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B34" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C34" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D34" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E34" t="s">
         <v>100</v>
       </c>
       <c r="F34" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G34" t="s">
         <v>295</v>
@@ -2211,22 +2211,22 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B35" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C35" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D35" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E35" t="s">
         <v>101</v>
       </c>
       <c r="F35" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G35" t="s">
         <v>296</v>
@@ -2234,22 +2234,22 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B36" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C36" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D36" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E36" t="s">
         <v>102</v>
       </c>
       <c r="F36" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G36" t="s">
         <v>297</v>
@@ -2257,22 +2257,22 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B37" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C37" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D37" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E37" t="s">
         <v>103</v>
       </c>
       <c r="F37" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="G37" t="s">
         <v>298</v>
@@ -2280,10 +2280,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B38" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C38" t="s">
         <v>63</v>
@@ -2303,22 +2303,22 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="B39" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C39" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D39" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E39" t="s">
         <v>105</v>
       </c>
       <c r="F39" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G39" t="s">
         <v>300</v>
@@ -2326,10 +2326,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B40" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C40" t="s">
         <v>63</v>
@@ -2349,22 +2349,22 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B41" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C41" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D41" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E41" t="s">
         <v>107</v>
       </c>
       <c r="F41" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G41" t="s">
         <v>302</v>
@@ -2372,22 +2372,22 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="B42" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C42" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D42" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E42" t="s">
         <v>108</v>
       </c>
       <c r="F42" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G42" t="s">
         <v>303</v>
@@ -2395,10 +2395,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="B43" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C43" t="s">
         <v>63</v>
@@ -2418,22 +2418,22 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B44" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C44" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D44" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E44" t="s">
         <v>110</v>
       </c>
       <c r="F44" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G44" t="s">
         <v>305</v>
@@ -2441,13 +2441,13 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B45" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C45" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D45" t="s">
         <v>67</v>
@@ -2456,7 +2456,7 @@
         <v>111</v>
       </c>
       <c r="F45" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="G45" t="s">
         <v>306</v>
@@ -2464,10 +2464,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B46" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C46" t="s">
         <v>64</v>
@@ -2487,10 +2487,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B47" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C47" t="s">
         <v>64</v>
@@ -2510,22 +2510,22 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B48" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C48" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D48" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E48" t="s">
         <v>114</v>
       </c>
       <c r="F48" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G48" t="s">
         <v>309</v>
@@ -2533,22 +2533,22 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="B49" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C49" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D49" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E49" t="s">
         <v>115</v>
       </c>
       <c r="F49" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G49" t="s">
         <v>310</v>
@@ -2556,22 +2556,22 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B50" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C50" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D50" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E50" t="s">
         <v>116</v>
       </c>
       <c r="F50" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G50" t="s">
         <v>311</v>
@@ -2579,22 +2579,22 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="B51" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C51" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D51" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E51" t="s">
         <v>117</v>
       </c>
       <c r="F51" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G51" t="s">
         <v>312</v>
@@ -2602,22 +2602,22 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B52" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C52" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D52" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E52" t="s">
         <v>118</v>
       </c>
       <c r="F52" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G52" t="s">
         <v>313</v>
@@ -2625,22 +2625,22 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="B53" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C53" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D53" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E53" t="s">
         <v>119</v>
       </c>
       <c r="F53" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G53" t="s">
         <v>314</v>
@@ -2648,22 +2648,22 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="B54" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="C54" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D54" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E54" t="s">
         <v>120</v>
       </c>
       <c r="F54" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G54" t="s">
         <v>315</v>
@@ -2671,10 +2671,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="B55" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C55" t="s">
         <v>63</v>
@@ -2694,22 +2694,22 @@
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="B56" t="s">
         <v>45</v>
       </c>
       <c r="C56" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D56" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E56" t="s">
         <v>122</v>
       </c>
       <c r="F56" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="G56" t="s">
         <v>317</v>
@@ -2717,22 +2717,22 @@
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="B57" t="s">
         <v>46</v>
       </c>
       <c r="C57" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D57" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E57" t="s">
         <v>123</v>
       </c>
       <c r="F57" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G57" t="s">
         <v>318</v>
@@ -2740,10 +2740,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="B58" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C58" t="s">
         <v>63</v>
@@ -2763,10 +2763,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="B59" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C59" t="s">
         <v>64</v>
@@ -2786,22 +2786,22 @@
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="B60" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C60" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D60" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E60" t="s">
         <v>126</v>
       </c>
       <c r="F60" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G60" t="s">
         <v>321</v>
@@ -2809,10 +2809,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="B61" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C61" t="s">
         <v>63</v>
@@ -2832,22 +2832,22 @@
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="B62" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C62" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D62" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E62" t="s">
         <v>128</v>
       </c>
       <c r="F62" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G62" t="s">
         <v>323</v>
@@ -2855,13 +2855,13 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B63" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C63" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D63" t="s">
         <v>66</v>
@@ -2870,7 +2870,7 @@
         <v>129</v>
       </c>
       <c r="F63" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G63" t="s">
         <v>324</v>
@@ -2878,7 +2878,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="B64" t="s">
         <v>47</v>
@@ -2901,10 +2901,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="B65" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C65" t="s">
         <v>64</v>
@@ -2924,10 +2924,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B66" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C66" t="s">
         <v>64</v>
@@ -2947,10 +2947,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B67" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C67" t="s">
         <v>63</v>
@@ -2970,22 +2970,22 @@
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B68" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C68" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D68" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E68" t="s">
         <v>134</v>
       </c>
       <c r="F68" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G68" t="s">
         <v>329</v>
@@ -2993,22 +2993,22 @@
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B69" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C69" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D69" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E69" t="s">
         <v>135</v>
       </c>
       <c r="F69" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G69" t="s">
         <v>330</v>
@@ -3016,22 +3016,22 @@
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="B70" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C70" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D70" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E70" t="s">
         <v>136</v>
       </c>
       <c r="F70" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G70" t="s">
         <v>331</v>
@@ -3039,22 +3039,22 @@
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B71" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C71" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D71" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E71" t="s">
         <v>137</v>
       </c>
       <c r="F71" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G71" t="s">
         <v>332</v>
@@ -3062,10 +3062,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B72" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C72" t="s">
         <v>64</v>
@@ -3085,22 +3085,22 @@
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="B73" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C73" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D73" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E73" t="s">
         <v>139</v>
       </c>
       <c r="F73" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G73" t="s">
         <v>334</v>
@@ -3108,13 +3108,13 @@
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="B74" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C74" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D74" t="s">
         <v>67</v>
@@ -3123,7 +3123,7 @@
         <v>140</v>
       </c>
       <c r="F74" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="G74" t="s">
         <v>335</v>
@@ -3131,22 +3131,22 @@
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B75" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C75" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D75" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E75" t="s">
         <v>141</v>
       </c>
       <c r="F75" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G75" t="s">
         <v>336</v>
@@ -3154,22 +3154,22 @@
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="B76" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C76" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D76" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E76" t="s">
         <v>142</v>
       </c>
       <c r="F76" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G76" t="s">
         <v>337</v>
@@ -3177,22 +3177,22 @@
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B77" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C77" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D77" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E77" t="s">
         <v>143</v>
       </c>
       <c r="F77" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G77" t="s">
         <v>338</v>
@@ -3200,22 +3200,22 @@
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B78" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C78" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D78" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E78" t="s">
         <v>144</v>
       </c>
       <c r="F78" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G78" t="s">
         <v>339</v>
@@ -3223,22 +3223,22 @@
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B79" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="C79" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D79" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E79" t="s">
         <v>145</v>
       </c>
       <c r="F79" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G79" t="s">
         <v>340</v>
@@ -3246,22 +3246,22 @@
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B80" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C80" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D80" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E80" t="s">
         <v>146</v>
       </c>
       <c r="F80" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G80" t="s">
         <v>341</v>
@@ -3269,10 +3269,10 @@
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="B81" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C81" t="s">
         <v>64</v>
@@ -3292,22 +3292,22 @@
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B82" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C82" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D82" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E82" t="s">
         <v>148</v>
       </c>
       <c r="F82" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G82" t="s">
         <v>343</v>
@@ -3315,22 +3315,22 @@
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="B83" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C83" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D83" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E83" t="s">
         <v>149</v>
       </c>
       <c r="F83" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G83" t="s">
         <v>344</v>
@@ -3338,10 +3338,10 @@
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="B84" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C84" t="s">
         <v>63</v>
@@ -3361,22 +3361,22 @@
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="B85" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="C85" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D85" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E85" t="s">
         <v>151</v>
       </c>
       <c r="F85" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G85" t="s">
         <v>346</v>
@@ -3387,19 +3387,19 @@
         <v>21</v>
       </c>
       <c r="B86" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C86" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D86" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E86" t="s">
         <v>152</v>
       </c>
       <c r="F86" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G86" t="s">
         <v>347</v>
@@ -3407,10 +3407,10 @@
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B87" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C87" t="s">
         <v>63</v>
@@ -3430,10 +3430,10 @@
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B88" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C88" t="s">
         <v>63</v>
@@ -3453,22 +3453,22 @@
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="B89" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C89" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D89" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E89" t="s">
         <v>155</v>
       </c>
       <c r="F89" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G89" t="s">
         <v>350</v>
@@ -3476,22 +3476,22 @@
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B90" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C90" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D90" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E90" t="s">
         <v>156</v>
       </c>
       <c r="F90" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G90" t="s">
         <v>351</v>
@@ -3499,22 +3499,22 @@
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="B91" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C91" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D91" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E91" t="s">
         <v>157</v>
       </c>
       <c r="F91" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G91" t="s">
         <v>352</v>
@@ -3522,10 +3522,10 @@
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="B92" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C92" t="s">
         <v>63</v>
@@ -3545,22 +3545,22 @@
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B93" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C93" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D93" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E93" t="s">
         <v>159</v>
       </c>
       <c r="F93" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G93" t="s">
         <v>354</v>
@@ -3568,22 +3568,22 @@
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="B94" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C94" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D94" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E94" t="s">
         <v>160</v>
       </c>
       <c r="F94" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G94" t="s">
         <v>355</v>
@@ -3591,22 +3591,22 @@
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B95" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C95" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D95" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E95" t="s">
         <v>161</v>
       </c>
       <c r="F95" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G95" t="s">
         <v>356</v>
@@ -3614,22 +3614,22 @@
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="B96" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C96" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D96" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E96" t="s">
         <v>162</v>
       </c>
       <c r="F96" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G96" t="s">
         <v>357</v>
@@ -3637,22 +3637,22 @@
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="B97" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="C97" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D97" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E97" t="s">
         <v>163</v>
       </c>
       <c r="F97" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G97" t="s">
         <v>358</v>
@@ -3660,22 +3660,22 @@
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="B98" t="s">
         <v>51</v>
       </c>
       <c r="C98" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D98" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E98" t="s">
         <v>164</v>
       </c>
       <c r="F98" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G98" t="s">
         <v>359</v>
@@ -3683,10 +3683,10 @@
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B99" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C99" t="s">
         <v>63</v>
@@ -3706,10 +3706,10 @@
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B100" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C100" t="s">
         <v>63</v>
@@ -3729,22 +3729,22 @@
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="B101" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C101" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D101" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E101" t="s">
         <v>167</v>
       </c>
       <c r="F101" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G101" t="s">
         <v>362</v>
@@ -3752,10 +3752,10 @@
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="B102" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C102" t="s">
         <v>64</v>
@@ -3775,22 +3775,22 @@
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="B103" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C103" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D103" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E103" t="s">
         <v>169</v>
       </c>
       <c r="F103" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G103" t="s">
         <v>364</v>
@@ -3798,22 +3798,22 @@
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="B104" t="s">
         <v>51</v>
       </c>
       <c r="C104" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D104" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E104" t="s">
         <v>170</v>
       </c>
       <c r="F104" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G104" t="s">
         <v>365</v>
@@ -3821,22 +3821,22 @@
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="B105" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C105" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D105" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E105" t="s">
         <v>171</v>
       </c>
       <c r="F105" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G105" t="s">
         <v>366</v>
@@ -3844,22 +3844,22 @@
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="B106" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C106" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D106" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E106" t="s">
         <v>172</v>
       </c>
       <c r="F106" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G106" t="s">
         <v>367</v>
@@ -3867,22 +3867,22 @@
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="B107" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C107" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D107" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E107" t="s">
         <v>173</v>
       </c>
       <c r="F107" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G107" t="s">
         <v>368</v>
@@ -3890,22 +3890,22 @@
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B108" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C108" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D108" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E108" t="s">
         <v>174</v>
       </c>
       <c r="F108" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G108" t="s">
         <v>369</v>
@@ -3913,22 +3913,22 @@
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B109" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C109" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D109" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E109" t="s">
         <v>175</v>
       </c>
       <c r="F109" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G109" t="s">
         <v>370</v>
@@ -3936,10 +3936,10 @@
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B110" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="C110" t="s">
         <v>63</v>
@@ -3959,22 +3959,22 @@
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B111" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="C111" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D111" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E111" t="s">
         <v>177</v>
       </c>
       <c r="F111" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G111" t="s">
         <v>372</v>
@@ -3982,22 +3982,22 @@
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B112" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="C112" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D112" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E112" t="s">
         <v>178</v>
       </c>
       <c r="F112" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G112" t="s">
         <v>373</v>
@@ -4005,22 +4005,22 @@
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="B113" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="C113" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D113" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E113" t="s">
         <v>179</v>
       </c>
       <c r="F113" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G113" t="s">
         <v>374</v>
@@ -4028,22 +4028,22 @@
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="B114" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="C114" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D114" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E114" t="s">
         <v>180</v>
       </c>
       <c r="F114" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G114" t="s">
         <v>375</v>
@@ -4051,22 +4051,22 @@
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="B115" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="C115" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D115" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E115" t="s">
         <v>181</v>
       </c>
       <c r="F115" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G115" t="s">
         <v>376</v>
@@ -4074,10 +4074,10 @@
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="B116" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="C116" t="s">
         <v>63</v>
@@ -4097,22 +4097,22 @@
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="B117" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="C117" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D117" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E117" t="s">
         <v>183</v>
       </c>
       <c r="F117" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G117" t="s">
         <v>378</v>
@@ -4120,22 +4120,22 @@
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="B118" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="C118" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D118" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E118" t="s">
         <v>184</v>
       </c>
       <c r="F118" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G118" t="s">
         <v>379</v>
@@ -4143,22 +4143,22 @@
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="B119" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="C119" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D119" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E119" t="s">
         <v>185</v>
       </c>
       <c r="F119" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G119" t="s">
         <v>380</v>
@@ -4166,10 +4166,10 @@
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="B120" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="C120" t="s">
         <v>63</v>
@@ -4189,22 +4189,22 @@
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B121" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="C121" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D121" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E121" t="s">
         <v>187</v>
       </c>
       <c r="F121" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G121" t="s">
         <v>382</v>
@@ -4212,10 +4212,10 @@
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="B122" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="C122" t="s">
         <v>63</v>
@@ -4235,22 +4235,22 @@
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B123" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="C123" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D123" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E123" t="s">
         <v>189</v>
       </c>
       <c r="F123" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G123" t="s">
         <v>384</v>
@@ -4258,22 +4258,22 @@
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="B124" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="C124" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D124" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E124" t="s">
         <v>190</v>
       </c>
       <c r="F124" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G124" t="s">
         <v>385</v>
@@ -4281,10 +4281,10 @@
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B125" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="C125" t="s">
         <v>63</v>
@@ -4304,22 +4304,22 @@
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="B126" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="C126" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D126" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E126" t="s">
         <v>192</v>
       </c>
       <c r="F126" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G126" t="s">
         <v>387</v>
@@ -4327,22 +4327,22 @@
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B127" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="C127" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D127" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E127" t="s">
         <v>193</v>
       </c>
       <c r="F127" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G127" t="s">
         <v>388</v>
@@ -4350,22 +4350,22 @@
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="B128" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C128" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D128" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E128" t="s">
         <v>194</v>
       </c>
       <c r="F128" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G128" t="s">
         <v>389</v>
@@ -4373,22 +4373,22 @@
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B129" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C129" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D129" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E129" t="s">
         <v>195</v>
       </c>
       <c r="F129" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G129" t="s">
         <v>390</v>
@@ -4396,22 +4396,22 @@
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B130" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C130" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D130" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E130" t="s">
         <v>196</v>
       </c>
       <c r="F130" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G130" t="s">
         <v>391</v>
@@ -4419,10 +4419,10 @@
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B131" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C131" t="s">
         <v>64</v>
@@ -4442,22 +4442,22 @@
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B132" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C132" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D132" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E132" t="s">
         <v>198</v>
       </c>
       <c r="F132" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G132" t="s">
         <v>393</v>
@@ -4465,22 +4465,22 @@
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="B133" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="C133" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D133" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E133" t="s">
         <v>199</v>
       </c>
       <c r="F133" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G133" t="s">
         <v>394</v>
@@ -4488,22 +4488,22 @@
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="B134" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C134" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D134" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E134" t="s">
         <v>200</v>
       </c>
       <c r="F134" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G134" t="s">
         <v>395</v>
@@ -4511,10 +4511,10 @@
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B135" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C135" t="s">
         <v>63</v>
@@ -4534,22 +4534,22 @@
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B136" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C136" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D136" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E136" t="s">
         <v>202</v>
       </c>
       <c r="F136" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G136" t="s">
         <v>397</v>
@@ -4557,22 +4557,22 @@
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="B137" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C137" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D137" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E137" t="s">
         <v>203</v>
       </c>
       <c r="F137" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G137" t="s">
         <v>398</v>
@@ -4580,10 +4580,10 @@
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B138" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="C138" t="s">
         <v>63</v>
@@ -4603,10 +4603,10 @@
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B139" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="C139" t="s">
         <v>63</v>
@@ -4626,22 +4626,22 @@
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="B140" t="s">
         <v>57</v>
       </c>
       <c r="C140" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D140" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E140" t="s">
         <v>206</v>
       </c>
       <c r="F140" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G140" t="s">
         <v>401</v>
@@ -4649,22 +4649,22 @@
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B141" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C141" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D141" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E141" t="s">
         <v>207</v>
       </c>
       <c r="F141" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G141" t="s">
         <v>402</v>
@@ -4672,10 +4672,10 @@
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B142" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C142" t="s">
         <v>64</v>
@@ -4695,10 +4695,10 @@
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="B143" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C143" t="s">
         <v>64</v>
@@ -4718,22 +4718,22 @@
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="B144" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C144" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D144" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E144" t="s">
         <v>210</v>
       </c>
       <c r="F144" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G144" t="s">
         <v>405</v>
@@ -4741,10 +4741,10 @@
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="B145" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C145" t="s">
         <v>63</v>
@@ -4764,22 +4764,22 @@
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="B146" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C146" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D146" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E146" t="s">
         <v>212</v>
       </c>
       <c r="F146" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G146" t="s">
         <v>407</v>
@@ -4787,7 +4787,7 @@
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="B147" t="s">
         <v>58</v>
@@ -4810,22 +4810,22 @@
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="B148" t="s">
         <v>59</v>
       </c>
       <c r="C148" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D148" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E148" t="s">
         <v>214</v>
       </c>
       <c r="F148" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G148" t="s">
         <v>409</v>
@@ -4833,22 +4833,22 @@
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B149" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C149" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D149" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E149" t="s">
         <v>215</v>
       </c>
       <c r="F149" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G149" t="s">
         <v>410</v>
@@ -4856,10 +4856,10 @@
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="B150" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C150" t="s">
         <v>63</v>
@@ -4879,22 +4879,22 @@
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="B151" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C151" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D151" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E151" t="s">
         <v>217</v>
       </c>
       <c r="F151" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G151" t="s">
         <v>412</v>
@@ -4902,10 +4902,10 @@
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="B152" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C152" t="s">
         <v>64</v>
@@ -4925,10 +4925,10 @@
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="B153" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C153" t="s">
         <v>64</v>
@@ -4948,7 +4948,7 @@
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="B154" t="s">
         <v>59</v>
@@ -4971,10 +4971,10 @@
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B155" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C155" t="s">
         <v>64</v>
@@ -4994,22 +4994,22 @@
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="B156" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C156" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D156" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E156" t="s">
         <v>222</v>
       </c>
       <c r="F156" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="G156" t="s">
         <v>417</v>
@@ -5017,10 +5017,10 @@
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="B157" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C157" t="s">
         <v>63</v>
@@ -5040,22 +5040,22 @@
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B158" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C158" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D158" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E158" t="s">
         <v>224</v>
       </c>
       <c r="F158" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G158" t="s">
         <v>419</v>
@@ -5063,22 +5063,22 @@
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B159" t="s">
         <v>58</v>
       </c>
       <c r="C159" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D159" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E159" t="s">
         <v>225</v>
       </c>
       <c r="F159" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G159" t="s">
         <v>420</v>
@@ -5086,10 +5086,10 @@
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B160" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C160" t="s">
         <v>64</v>
@@ -5109,22 +5109,22 @@
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B161" t="s">
         <v>60</v>
       </c>
       <c r="C161" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D161" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E161" t="s">
         <v>227</v>
       </c>
       <c r="F161" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G161" t="s">
         <v>422</v>
@@ -5132,22 +5132,22 @@
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B162" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C162" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D162" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E162" t="s">
         <v>228</v>
       </c>
       <c r="F162" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="G162" t="s">
         <v>423</v>
@@ -5155,10 +5155,10 @@
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="B163" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C163" t="s">
         <v>64</v>
@@ -5178,10 +5178,10 @@
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="B164" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C164" t="s">
         <v>64</v>
@@ -5201,10 +5201,10 @@
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B165" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C165" t="s">
         <v>64</v>
@@ -5224,10 +5224,10 @@
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="B166" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C166" t="s">
         <v>64</v>
@@ -5247,22 +5247,22 @@
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B167" t="s">
         <v>60</v>
       </c>
       <c r="C167" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D167" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E167" t="s">
         <v>233</v>
       </c>
       <c r="F167" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G167" t="s">
         <v>428</v>
@@ -5270,10 +5270,10 @@
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B168" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C168" t="s">
         <v>64</v>
@@ -5296,19 +5296,19 @@
         <v>34</v>
       </c>
       <c r="B169" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C169" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D169" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E169" t="s">
         <v>235</v>
       </c>
       <c r="F169" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G169" t="s">
         <v>430</v>
@@ -5316,22 +5316,22 @@
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="B170" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="C170" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D170" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E170" t="s">
         <v>236</v>
       </c>
       <c r="F170" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="G170" t="s">
         <v>431</v>
@@ -5339,10 +5339,10 @@
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="B171" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="C171" t="s">
         <v>63</v>
@@ -5365,7 +5365,7 @@
         <v>35</v>
       </c>
       <c r="B172" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="C172" t="s">
         <v>64</v>
@@ -5385,10 +5385,10 @@
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B173" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="C173" t="s">
         <v>64</v>
@@ -5408,22 +5408,22 @@
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B174" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="C174" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D174" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E174" t="s">
         <v>240</v>
       </c>
       <c r="F174" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G174" t="s">
         <v>435</v>
@@ -5431,22 +5431,22 @@
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="B175" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="C175" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D175" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E175" t="s">
         <v>241</v>
       </c>
       <c r="F175" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G175" t="s">
         <v>436</v>
@@ -5454,10 +5454,10 @@
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="B176" t="s">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="C176" t="s">
         <v>63</v>
@@ -5477,22 +5477,22 @@
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="B177" t="s">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="C177" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D177" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E177" t="s">
         <v>243</v>
       </c>
       <c r="F177" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G177" t="s">
         <v>438</v>
@@ -5500,22 +5500,22 @@
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="B178" t="s">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="C178" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D178" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E178" t="s">
         <v>244</v>
       </c>
       <c r="F178" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G178" t="s">
         <v>439</v>
@@ -5523,22 +5523,22 @@
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="B179" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="C179" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D179" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E179" t="s">
         <v>245</v>
       </c>
       <c r="F179" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G179" t="s">
         <v>440</v>
@@ -5546,10 +5546,10 @@
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="B180" t="s">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="C180" t="s">
         <v>63</v>
@@ -5569,10 +5569,10 @@
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="B181" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="C181" t="s">
         <v>64</v>
@@ -5592,10 +5592,10 @@
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="B182" t="s">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="C182" t="s">
         <v>64</v>
@@ -5615,22 +5615,22 @@
     </row>
     <row r="183">
       <c r="A183" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B183" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="C183" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D183" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E183" t="s">
         <v>249</v>
       </c>
       <c r="F183" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G183" t="s">
         <v>444</v>
@@ -5638,10 +5638,10 @@
     </row>
     <row r="184">
       <c r="A184" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="B184" t="s">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="C184" t="s">
         <v>64</v>
@@ -5661,22 +5661,22 @@
     </row>
     <row r="185">
       <c r="A185" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="B185" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="C185" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D185" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E185" t="s">
         <v>251</v>
       </c>
       <c r="F185" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="G185" t="s">
         <v>446</v>
@@ -5684,10 +5684,10 @@
     </row>
     <row r="186">
       <c r="A186" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B186" t="s">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="C186" t="s">
         <v>63</v>
@@ -5707,22 +5707,22 @@
     </row>
     <row r="187">
       <c r="A187" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B187" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="C187" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D187" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E187" t="s">
         <v>253</v>
       </c>
       <c r="F187" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G187" t="s">
         <v>448</v>
@@ -5730,22 +5730,22 @@
     </row>
     <row r="188">
       <c r="A188" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B188" t="s">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="C188" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D188" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E188" t="s">
         <v>254</v>
       </c>
       <c r="F188" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G188" t="s">
         <v>449</v>
@@ -5753,10 +5753,10 @@
     </row>
     <row r="189">
       <c r="A189" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B189" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="C189" t="s">
         <v>63</v>
@@ -5776,22 +5776,22 @@
     </row>
     <row r="190">
       <c r="A190" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B190" t="s">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="C190" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D190" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E190" t="s">
         <v>256</v>
       </c>
       <c r="F190" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G190" t="s">
         <v>451</v>
@@ -5799,22 +5799,22 @@
     </row>
     <row r="191">
       <c r="A191" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B191" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="C191" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D191" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E191" t="s">
         <v>257</v>
       </c>
       <c r="F191" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="G191" t="s">
         <v>452</v>
@@ -5822,22 +5822,22 @@
     </row>
     <row r="192">
       <c r="A192" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B192" t="s">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="C192" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D192" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E192" t="s">
         <v>258</v>
       </c>
       <c r="F192" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="G192" t="s">
         <v>453</v>
@@ -5848,7 +5848,7 @@
         <v>38</v>
       </c>
       <c r="B193" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="C193" t="s">
         <v>64</v>

--- a/Estadisticas_Servidores.xlsx
+++ b/Estadisticas_Servidores.xlsx
@@ -1,13 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="false"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10323"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/franklinvelasquezfuentes/Documents/Tareas/Modela 2/MYS2_Proyecto_G21/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45E09262-0BC9-F14C-B99E-1DC382B382BB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Resultados - Processing Data" r:id="rId3" sheetId="1"/>
+    <sheet name="Resultados - Processing Data" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -1382,11 +1390,10 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1398,7 +1405,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="darkGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
@@ -1416,18 +1423,328 @@
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G193"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="true"/>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1450,7 +1767,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -1473,7 +1790,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -1496,7 +1813,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -1519,7 +1836,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -1542,7 +1859,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -1565,7 +1882,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -1588,7 +1905,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -1611,7 +1928,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -1634,7 +1951,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -1657,7 +1974,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -1680,7 +1997,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -1703,7 +2020,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>18</v>
       </c>
@@ -1726,7 +2043,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>19</v>
       </c>
@@ -1749,7 +2066,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>20</v>
       </c>
@@ -1772,7 +2089,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>21</v>
       </c>
@@ -1795,7 +2112,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>22</v>
       </c>
@@ -1818,7 +2135,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>23</v>
       </c>
@@ -1841,7 +2158,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>24</v>
       </c>
@@ -1864,7 +2181,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>25</v>
       </c>
@@ -1887,7 +2204,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>26</v>
       </c>
@@ -1910,7 +2227,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>27</v>
       </c>
@@ -1933,7 +2250,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>28</v>
       </c>
@@ -1956,7 +2273,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>29</v>
       </c>
@@ -1979,7 +2296,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>30</v>
       </c>
@@ -2002,7 +2319,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>31</v>
       </c>
@@ -2025,7 +2342,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>32</v>
       </c>
@@ -2048,7 +2365,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>33</v>
       </c>
@@ -2071,7 +2388,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>34</v>
       </c>
@@ -2094,7 +2411,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>35</v>
       </c>
@@ -2117,7 +2434,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>36</v>
       </c>
@@ -2140,7 +2457,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>37</v>
       </c>
@@ -2163,7 +2480,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>9</v>
       </c>
@@ -2186,7 +2503,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>8</v>
       </c>
@@ -2209,7 +2526,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>10</v>
       </c>
@@ -2232,7 +2549,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>17</v>
       </c>
@@ -2255,7 +2572,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>15</v>
       </c>
@@ -2278,7 +2595,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>14</v>
       </c>
@@ -2301,7 +2618,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>31</v>
       </c>
@@ -2324,7 +2641,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>7</v>
       </c>
@@ -2347,7 +2664,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>11</v>
       </c>
@@ -2370,7 +2687,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>25</v>
       </c>
@@ -2393,7 +2710,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>22</v>
       </c>
@@ -2416,7 +2733,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>19</v>
       </c>
@@ -2439,7 +2756,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>18</v>
       </c>
@@ -2462,7 +2779,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>13</v>
       </c>
@@ -2485,7 +2802,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>12</v>
       </c>
@@ -2508,7 +2825,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>16</v>
       </c>
@@ -2531,7 +2848,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>24</v>
       </c>
@@ -2554,7 +2871,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>20</v>
       </c>
@@ -2577,7 +2894,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>28</v>
       </c>
@@ -2600,7 +2917,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>21</v>
       </c>
@@ -2623,7 +2940,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>23</v>
       </c>
@@ -2646,7 +2963,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>38</v>
       </c>
@@ -2669,7 +2986,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>29</v>
       </c>
@@ -2692,7 +3009,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>26</v>
       </c>
@@ -2715,7 +3032,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>30</v>
       </c>
@@ -2738,7 +3055,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>32</v>
       </c>
@@ -2761,7 +3078,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>33</v>
       </c>
@@ -2784,7 +3101,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>34</v>
       </c>
@@ -2807,7 +3124,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>35</v>
       </c>
@@ -2830,7 +3147,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>37</v>
       </c>
@@ -2853,7 +3170,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>9</v>
       </c>
@@ -2876,7 +3193,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>8</v>
       </c>
@@ -2899,7 +3216,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>27</v>
       </c>
@@ -2922,7 +3239,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>15</v>
       </c>
@@ -2945,7 +3262,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>14</v>
       </c>
@@ -2968,7 +3285,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>17</v>
       </c>
@@ -2991,7 +3308,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>10</v>
       </c>
@@ -3014,7 +3331,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="70">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>36</v>
       </c>
@@ -3037,7 +3354,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="71">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>19</v>
       </c>
@@ -3060,7 +3377,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>22</v>
       </c>
@@ -3083,7 +3400,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="73">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>31</v>
       </c>
@@ -3106,7 +3423,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="74">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>12</v>
       </c>
@@ -3129,7 +3446,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="75">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>18</v>
       </c>
@@ -3152,7 +3469,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="76">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>7</v>
       </c>
@@ -3175,7 +3492,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="77">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>20</v>
       </c>
@@ -3198,7 +3515,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="78">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>11</v>
       </c>
@@ -3221,7 +3538,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="79">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>16</v>
       </c>
@@ -3244,7 +3561,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="80">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>24</v>
       </c>
@@ -3267,7 +3584,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="81">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>28</v>
       </c>
@@ -3290,7 +3607,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="82">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>25</v>
       </c>
@@ -3313,7 +3630,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="83">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>9</v>
       </c>
@@ -3336,7 +3653,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="84">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>8</v>
       </c>
@@ -3359,7 +3676,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="85">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>38</v>
       </c>
@@ -3382,7 +3699,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="86">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>21</v>
       </c>
@@ -3405,7 +3722,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="87">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>26</v>
       </c>
@@ -3428,7 +3745,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="88">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>23</v>
       </c>
@@ -3451,7 +3768,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="89">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>30</v>
       </c>
@@ -3474,7 +3791,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="90">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>27</v>
       </c>
@@ -3497,7 +3814,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="91">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>37</v>
       </c>
@@ -3520,7 +3837,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="92">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>10</v>
       </c>
@@ -3543,7 +3860,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="93">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>17</v>
       </c>
@@ -3566,7 +3883,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="94">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>29</v>
       </c>
@@ -3589,7 +3906,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="95">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>15</v>
       </c>
@@ -3612,7 +3929,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="96">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>32</v>
       </c>
@@ -3635,7 +3952,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="97">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>13</v>
       </c>
@@ -3658,7 +3975,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="98">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>33</v>
       </c>
@@ -3681,7 +3998,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="99">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>14</v>
       </c>
@@ -3704,7 +4021,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="100">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>19</v>
       </c>
@@ -3727,7 +4044,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="101">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>8</v>
       </c>
@@ -3750,7 +4067,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="102">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>9</v>
       </c>
@@ -3773,7 +4090,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="103">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>34</v>
       </c>
@@ -3796,7 +4113,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="104">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>35</v>
       </c>
@@ -3819,7 +4136,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="105">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>36</v>
       </c>
@@ -3842,7 +4159,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="106">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>12</v>
       </c>
@@ -3865,7 +4182,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="107">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>31</v>
       </c>
@@ -3888,7 +4205,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="108">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>20</v>
       </c>
@@ -3911,7 +4228,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="109">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>22</v>
       </c>
@@ -3934,7 +4251,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="110">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>28</v>
       </c>
@@ -3957,7 +4274,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="111">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>24</v>
       </c>
@@ -3980,7 +4297,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="112">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>18</v>
       </c>
@@ -4003,7 +4320,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="113">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>15</v>
       </c>
@@ -4026,7 +4343,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="114">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>14</v>
       </c>
@@ -4049,7 +4366,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="115">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>10</v>
       </c>
@@ -4072,7 +4389,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="116">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>19</v>
       </c>
@@ -4095,7 +4412,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="117">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>17</v>
       </c>
@@ -4118,7 +4435,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="118">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>7</v>
       </c>
@@ -4141,7 +4458,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="119">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>11</v>
       </c>
@@ -4164,7 +4481,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="120">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>9</v>
       </c>
@@ -4187,7 +4504,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="121">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>16</v>
       </c>
@@ -4210,7 +4527,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="122">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>8</v>
       </c>
@@ -4233,7 +4550,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="123">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>26</v>
       </c>
@@ -4256,7 +4573,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="124">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>38</v>
       </c>
@@ -4279,7 +4596,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="125">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>29</v>
       </c>
@@ -4302,7 +4619,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="126">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>13</v>
       </c>
@@ -4325,7 +4642,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="127">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>31</v>
       </c>
@@ -4348,7 +4665,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="128">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>21</v>
       </c>
@@ -4371,7 +4688,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="129">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>22</v>
       </c>
@@ -4394,7 +4711,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="130">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>25</v>
       </c>
@@ -4417,7 +4734,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="131">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>33</v>
       </c>
@@ -4440,7 +4757,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="132">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>23</v>
       </c>
@@ -4463,7 +4780,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="133">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>12</v>
       </c>
@@ -4486,7 +4803,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="134">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>18</v>
       </c>
@@ -4509,7 +4826,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="135">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>20</v>
       </c>
@@ -4532,7 +4849,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="136">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>30</v>
       </c>
@@ -4555,7 +4872,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="137">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>35</v>
       </c>
@@ -4578,7 +4895,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="138">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>24</v>
       </c>
@@ -4601,7 +4918,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="139">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>28</v>
       </c>
@@ -4624,7 +4941,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="140">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>37</v>
       </c>
@@ -4647,7 +4964,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="141">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>34</v>
       </c>
@@ -4670,7 +4987,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="142">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>32</v>
       </c>
@@ -4693,7 +5010,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="143">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>36</v>
       </c>
@@ -4716,7 +5033,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="144">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>17</v>
       </c>
@@ -4739,7 +5056,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="145">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>15</v>
       </c>
@@ -4762,7 +5079,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="146">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>14</v>
       </c>
@@ -4785,7 +5102,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="147">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>10</v>
       </c>
@@ -4808,7 +5125,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="148">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>7</v>
       </c>
@@ -4831,7 +5148,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="149">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>27</v>
       </c>
@@ -4854,7 +5171,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="150">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>11</v>
       </c>
@@ -4877,7 +5194,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="151">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>19</v>
       </c>
@@ -4900,7 +5217,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="152">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>25</v>
       </c>
@@ -4923,7 +5240,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="153">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>13</v>
       </c>
@@ -4946,7 +5263,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="154">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>16</v>
       </c>
@@ -4969,7 +5286,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="155">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>26</v>
       </c>
@@ -4992,7 +5309,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="156">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>23</v>
       </c>
@@ -5015,7 +5332,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="157">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>21</v>
       </c>
@@ -5038,7 +5355,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="158">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>37</v>
       </c>
@@ -5061,7 +5378,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="159">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>31</v>
       </c>
@@ -5084,7 +5401,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="160">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>29</v>
       </c>
@@ -5107,7 +5424,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="161">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>27</v>
       </c>
@@ -5130,7 +5447,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="162">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>30</v>
       </c>
@@ -5153,7 +5470,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="163">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>22</v>
       </c>
@@ -5176,7 +5493,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="164">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>12</v>
       </c>
@@ -5199,7 +5516,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="165">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>32</v>
       </c>
@@ -5222,7 +5539,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="166">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>18</v>
       </c>
@@ -5245,7 +5562,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="167">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>36</v>
       </c>
@@ -5268,7 +5585,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="168">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>33</v>
       </c>
@@ -5291,7 +5608,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="169">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>34</v>
       </c>
@@ -5314,7 +5631,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="170">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>24</v>
       </c>
@@ -5337,7 +5654,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="171">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>20</v>
       </c>
@@ -5360,7 +5677,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="172">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>35</v>
       </c>
@@ -5383,7 +5700,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="173">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>28</v>
       </c>
@@ -5406,7 +5723,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="174">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>38</v>
       </c>
@@ -5429,7 +5746,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="175">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>7</v>
       </c>
@@ -5452,7 +5769,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="176">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>11</v>
       </c>
@@ -5475,7 +5792,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="177">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>16</v>
       </c>
@@ -5498,7 +5815,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="178">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>25</v>
       </c>
@@ -5521,7 +5838,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="179">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>13</v>
       </c>
@@ -5544,7 +5861,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="180">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>21</v>
       </c>
@@ -5567,7 +5884,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="181">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>26</v>
       </c>
@@ -5590,7 +5907,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="182">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>23</v>
       </c>
@@ -5613,7 +5930,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="183">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>38</v>
       </c>
@@ -5636,7 +5953,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="184">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>27</v>
       </c>
@@ -5659,7 +5976,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="185">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>29</v>
       </c>
@@ -5682,7 +5999,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="186">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>30</v>
       </c>
@@ -5705,7 +6022,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="187">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>34</v>
       </c>
@@ -5728,7 +6045,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="188">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>37</v>
       </c>
@@ -5751,7 +6068,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="189">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>36</v>
       </c>
@@ -5774,7 +6091,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="190">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>32</v>
       </c>
@@ -5797,7 +6114,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="191">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>35</v>
       </c>
@@ -5820,7 +6137,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="192">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>33</v>
       </c>
@@ -5843,7 +6160,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="193">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>38</v>
       </c>
@@ -5867,6 +6184,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Estadisticas_Servidores.xlsx
+++ b/Estadisticas_Servidores.xlsx
@@ -8,19 +8,30 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/franklinvelasquezfuentes/Documents/Tareas/Modela 2/MYS2_Proyecto_G21/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45E09262-0BC9-F14C-B99E-1DC382B382BB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{293BBBB3-F8D9-FA4C-993B-7061AF5049E1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38400" yWindow="3600" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Resultados - Processing Data" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1351" uniqueCount="455">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1350" uniqueCount="454">
   <si>
     <t>Estacion</t>
   </si>
@@ -224,9 +235,6 @@
   </si>
   <si>
     <t>shape</t>
-  </si>
-  <si>
-    <t>121.913612565445</t>
   </si>
   <si>
     <t>231.065656565657</t>
@@ -1400,12 +1408,30 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1420,8 +1446,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1736,66 +1766,75 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G193"/>
+  <dimension ref="A1:H193"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView tabSelected="1" zoomScale="270" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A149" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E155" sqref="E155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="33.33203125" customWidth="1"/>
+    <col min="2" max="2" width="15.83203125" customWidth="1"/>
+    <col min="3" max="3" width="13.1640625" customWidth="1"/>
+    <col min="4" max="4" width="18.5" customWidth="1"/>
+    <col min="5" max="5" width="18.33203125" customWidth="1"/>
+    <col min="7" max="7" width="28.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="B2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E2" t="s">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="F2" t="s">
         <v>260</v>
       </c>
       <c r="G2" t="s">
-        <v>263</v>
+        <v>278</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="B3" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="C3" t="s">
         <v>63</v>
@@ -1804,21 +1843,21 @@
         <v>66</v>
       </c>
       <c r="E3" t="s">
-        <v>69</v>
+        <v>118</v>
       </c>
       <c r="F3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G3" t="s">
-        <v>264</v>
+        <v>313</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="B4" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="C4" t="s">
         <v>63</v>
@@ -1827,21 +1866,21 @@
         <v>66</v>
       </c>
       <c r="E4" t="s">
-        <v>70</v>
+        <v>153</v>
       </c>
       <c r="F4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G4" t="s">
-        <v>265</v>
+        <v>348</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="C5" t="s">
         <v>63</v>
@@ -1850,67 +1889,67 @@
         <v>66</v>
       </c>
       <c r="E5" t="s">
-        <v>71</v>
+        <v>197</v>
       </c>
       <c r="F5" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G5" t="s">
-        <v>266</v>
+        <v>392</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="B6" t="s">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="C6" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E6" t="s">
-        <v>72</v>
+        <v>221</v>
       </c>
       <c r="F6" t="s">
         <v>260</v>
       </c>
       <c r="G6" t="s">
-        <v>267</v>
+        <v>416</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="B7" t="s">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="C7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E7" t="s">
-        <v>73</v>
+        <v>247</v>
       </c>
       <c r="F7" t="s">
         <v>260</v>
       </c>
       <c r="G7" t="s">
-        <v>268</v>
+        <v>442</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="B8" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C8" t="s">
         <v>63</v>
@@ -1919,44 +1958,44 @@
         <v>66</v>
       </c>
       <c r="E8" t="s">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="F8" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G8" t="s">
-        <v>269</v>
+        <v>292</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="B9" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="C9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E9" t="s">
-        <v>75</v>
+        <v>127</v>
       </c>
       <c r="F9" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="G9" t="s">
-        <v>270</v>
+        <v>322</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="B10" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="C10" t="s">
         <v>63</v>
@@ -1965,21 +2004,21 @@
         <v>66</v>
       </c>
       <c r="E10" t="s">
-        <v>76</v>
+        <v>156</v>
       </c>
       <c r="F10" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G10" t="s">
-        <v>271</v>
+        <v>351</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="B11" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="C11" t="s">
         <v>63</v>
@@ -1988,21 +2027,21 @@
         <v>66</v>
       </c>
       <c r="E11" t="s">
-        <v>77</v>
+        <v>205</v>
       </c>
       <c r="F11" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G11" t="s">
-        <v>272</v>
+        <v>400</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="B12" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="C12" t="s">
         <v>63</v>
@@ -2011,21 +2050,21 @@
         <v>66</v>
       </c>
       <c r="E12" t="s">
-        <v>78</v>
+        <v>223</v>
       </c>
       <c r="F12" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G12" t="s">
-        <v>273</v>
+        <v>418</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="B13" t="s">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="C13" t="s">
         <v>63</v>
@@ -2034,21 +2073,21 @@
         <v>66</v>
       </c>
       <c r="E13" t="s">
-        <v>79</v>
+        <v>253</v>
       </c>
       <c r="F13" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G13" t="s">
-        <v>274</v>
+        <v>448</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B14" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C14" t="s">
         <v>63</v>
@@ -2057,21 +2096,21 @@
         <v>66</v>
       </c>
       <c r="E14" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="F14" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G14" t="s">
-        <v>275</v>
+        <v>284</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="B15" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C15" t="s">
         <v>63</v>
@@ -2080,21 +2119,21 @@
         <v>66</v>
       </c>
       <c r="E15" t="s">
-        <v>81</v>
+        <v>120</v>
       </c>
       <c r="F15" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G15" t="s">
-        <v>276</v>
+        <v>315</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="B16" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="C16" t="s">
         <v>63</v>
@@ -2103,44 +2142,44 @@
         <v>66</v>
       </c>
       <c r="E16" t="s">
-        <v>82</v>
+        <v>159</v>
       </c>
       <c r="F16" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G16" t="s">
-        <v>277</v>
+        <v>354</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="B17" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="C17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D17" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E17" t="s">
-        <v>83</v>
+        <v>190</v>
       </c>
       <c r="F17" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="G17" t="s">
-        <v>278</v>
+        <v>385</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B18" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="C18" t="s">
         <v>64</v>
@@ -2149,44 +2188,44 @@
         <v>67</v>
       </c>
       <c r="E18" t="s">
-        <v>84</v>
+        <v>225</v>
       </c>
       <c r="F18" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G18" t="s">
-        <v>279</v>
+        <v>420</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B19" t="s">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="C19" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D19" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E19" t="s">
-        <v>85</v>
+        <v>250</v>
       </c>
       <c r="F19" t="s">
         <v>260</v>
       </c>
       <c r="G19" t="s">
-        <v>280</v>
+        <v>445</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="B20" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C20" t="s">
         <v>63</v>
@@ -2195,21 +2234,21 @@
         <v>66</v>
       </c>
       <c r="E20" t="s">
-        <v>86</v>
+        <v>119</v>
       </c>
       <c r="F20" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G20" t="s">
-        <v>281</v>
+        <v>314</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="B21" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="C21" t="s">
         <v>63</v>
@@ -2218,67 +2257,67 @@
         <v>66</v>
       </c>
       <c r="E21" t="s">
-        <v>87</v>
+        <v>150</v>
       </c>
       <c r="F21" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G21" t="s">
-        <v>282</v>
+        <v>345</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="B22" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="C22" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D22" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E22" t="s">
-        <v>88</v>
+        <v>189</v>
       </c>
       <c r="F22" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="G22" t="s">
-        <v>283</v>
+        <v>384</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="B23" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="C23" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D23" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E23" t="s">
-        <v>89</v>
+        <v>239</v>
       </c>
       <c r="F23" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="G23" t="s">
-        <v>284</v>
+        <v>434</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="B24" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="C24" t="s">
         <v>63</v>
@@ -2287,21 +2326,21 @@
         <v>66</v>
       </c>
       <c r="E24" t="s">
-        <v>90</v>
+        <v>248</v>
       </c>
       <c r="F24" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G24" t="s">
-        <v>285</v>
+        <v>443</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="B25" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="C25" t="s">
         <v>64</v>
@@ -2310,18 +2349,18 @@
         <v>67</v>
       </c>
       <c r="E25" t="s">
-        <v>91</v>
+        <v>258</v>
       </c>
       <c r="F25" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G25" t="s">
-        <v>286</v>
+        <v>453</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="B26" t="s">
         <v>41</v>
@@ -2333,21 +2372,21 @@
         <v>66</v>
       </c>
       <c r="E26" t="s">
-        <v>92</v>
+        <v>70</v>
       </c>
       <c r="F26" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G26" t="s">
-        <v>287</v>
+        <v>265</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="B27" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C27" t="s">
         <v>63</v>
@@ -2356,21 +2395,21 @@
         <v>66</v>
       </c>
       <c r="E27" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="F27" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G27" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="B28" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C28" t="s">
         <v>63</v>
@@ -2379,90 +2418,90 @@
         <v>66</v>
       </c>
       <c r="E28" t="s">
-        <v>94</v>
+        <v>134</v>
       </c>
       <c r="F28" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G28" t="s">
-        <v>289</v>
+        <v>329</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="B29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="C29" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D29" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E29" t="s">
-        <v>95</v>
+        <v>157</v>
       </c>
       <c r="F29" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="G29" t="s">
-        <v>290</v>
+        <v>352</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="B30" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="C30" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D30" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E30" t="s">
-        <v>96</v>
+        <v>180</v>
       </c>
       <c r="F30" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="G30" t="s">
-        <v>291</v>
+        <v>375</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="B31" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="C31" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D31" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E31" t="s">
-        <v>97</v>
+        <v>212</v>
       </c>
       <c r="F31" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="G31" t="s">
-        <v>292</v>
+        <v>407</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="B32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C32" t="s">
         <v>63</v>
@@ -2471,67 +2510,67 @@
         <v>66</v>
       </c>
       <c r="E32" t="s">
-        <v>98</v>
+        <v>72</v>
       </c>
       <c r="F32" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G32" t="s">
-        <v>293</v>
+        <v>267</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B33" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C33" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D33" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E33" t="s">
-        <v>99</v>
+        <v>112</v>
       </c>
       <c r="F33" t="s">
         <v>260</v>
       </c>
       <c r="G33" t="s">
-        <v>294</v>
+        <v>307</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B34" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C34" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D34" t="s">
         <v>67</v>
       </c>
       <c r="E34" t="s">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="F34" t="s">
         <v>261</v>
       </c>
       <c r="G34" t="s">
-        <v>295</v>
+        <v>334</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B35" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="C35" t="s">
         <v>63</v>
@@ -2540,21 +2579,21 @@
         <v>66</v>
       </c>
       <c r="E35" t="s">
-        <v>101</v>
+        <v>171</v>
       </c>
       <c r="F35" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G35" t="s">
-        <v>296</v>
+        <v>366</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B36" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="C36" t="s">
         <v>63</v>
@@ -2563,21 +2602,21 @@
         <v>66</v>
       </c>
       <c r="E36" t="s">
-        <v>102</v>
+        <v>198</v>
       </c>
       <c r="F36" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G36" t="s">
-        <v>297</v>
+        <v>393</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B37" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="C37" t="s">
         <v>64</v>
@@ -2586,41 +2625,41 @@
         <v>67</v>
       </c>
       <c r="E37" t="s">
-        <v>103</v>
+        <v>229</v>
       </c>
       <c r="F37" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G37" t="s">
-        <v>298</v>
+        <v>424</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="B38" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C38" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D38" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E38" t="s">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="F38" t="s">
         <v>260</v>
       </c>
       <c r="G38" t="s">
-        <v>299</v>
+        <v>277</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="B39" t="s">
         <v>44</v>
@@ -2632,44 +2671,44 @@
         <v>66</v>
       </c>
       <c r="E39" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="F39" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G39" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="B40" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C40" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D40" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E40" t="s">
-        <v>106</v>
+        <v>137</v>
       </c>
       <c r="F40" t="s">
         <v>260</v>
       </c>
       <c r="G40" t="s">
-        <v>301</v>
+        <v>332</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="B41" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="C41" t="s">
         <v>63</v>
@@ -2678,21 +2717,21 @@
         <v>66</v>
       </c>
       <c r="E41" t="s">
-        <v>107</v>
+        <v>174</v>
       </c>
       <c r="F41" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G41" t="s">
-        <v>302</v>
+        <v>369</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B42" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="C42" t="s">
         <v>63</v>
@@ -2701,13 +2740,13 @@
         <v>66</v>
       </c>
       <c r="E42" t="s">
-        <v>108</v>
+        <v>194</v>
       </c>
       <c r="F42" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G42" t="s">
-        <v>303</v>
+        <v>389</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
@@ -2715,30 +2754,30 @@
         <v>22</v>
       </c>
       <c r="B43" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="C43" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D43" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E43" t="s">
-        <v>109</v>
+        <v>228</v>
       </c>
       <c r="F43" t="s">
         <v>260</v>
       </c>
       <c r="G43" t="s">
-        <v>304</v>
+        <v>423</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="B44" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C44" t="s">
         <v>63</v>
@@ -2747,90 +2786,90 @@
         <v>66</v>
       </c>
       <c r="E44" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="F44" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G44" t="s">
-        <v>305</v>
+        <v>286</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="B45" t="s">
         <v>44</v>
       </c>
       <c r="C45" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D45" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E45" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="F45" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="G45" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="B46" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C46" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D46" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E46" t="s">
-        <v>112</v>
+        <v>138</v>
       </c>
       <c r="F46" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="G46" t="s">
-        <v>307</v>
+        <v>333</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="B47" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="C47" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D47" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E47" t="s">
-        <v>113</v>
+        <v>172</v>
       </c>
       <c r="F47" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="G47" t="s">
-        <v>308</v>
+        <v>367</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="B48" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="C48" t="s">
         <v>63</v>
@@ -2839,21 +2878,21 @@
         <v>66</v>
       </c>
       <c r="E48" t="s">
-        <v>114</v>
+        <v>192</v>
       </c>
       <c r="F48" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G48" t="s">
-        <v>309</v>
+        <v>387</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="B49" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="C49" t="s">
         <v>63</v>
@@ -2862,21 +2901,21 @@
         <v>66</v>
       </c>
       <c r="E49" t="s">
-        <v>115</v>
+        <v>224</v>
       </c>
       <c r="F49" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G49" t="s">
-        <v>310</v>
+        <v>419</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B50" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C50" t="s">
         <v>63</v>
@@ -2885,18 +2924,18 @@
         <v>66</v>
       </c>
       <c r="E50" t="s">
-        <v>116</v>
+        <v>84</v>
       </c>
       <c r="F50" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G50" t="s">
-        <v>311</v>
+        <v>279</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B51" t="s">
         <v>44</v>
@@ -2908,21 +2947,21 @@
         <v>66</v>
       </c>
       <c r="E51" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F51" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G51" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B52" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C52" t="s">
         <v>63</v>
@@ -2931,21 +2970,21 @@
         <v>66</v>
       </c>
       <c r="E52" t="s">
-        <v>118</v>
+        <v>145</v>
       </c>
       <c r="F52" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G52" t="s">
-        <v>313</v>
+        <v>340</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B53" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="C53" t="s">
         <v>63</v>
@@ -2954,21 +2993,21 @@
         <v>66</v>
       </c>
       <c r="E53" t="s">
-        <v>119</v>
+        <v>176</v>
       </c>
       <c r="F53" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G53" t="s">
-        <v>314</v>
+        <v>371</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="B54" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="C54" t="s">
         <v>63</v>
@@ -2977,44 +3016,44 @@
         <v>66</v>
       </c>
       <c r="E54" t="s">
-        <v>120</v>
+        <v>203</v>
       </c>
       <c r="F54" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G54" t="s">
-        <v>315</v>
+        <v>398</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B55" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="C55" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D55" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E55" t="s">
-        <v>121</v>
+        <v>235</v>
       </c>
       <c r="F55" t="s">
         <v>260</v>
       </c>
       <c r="G55" t="s">
-        <v>316</v>
+        <v>430</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B56" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C56" t="s">
         <v>64</v>
@@ -3023,21 +3062,21 @@
         <v>67</v>
       </c>
       <c r="E56" t="s">
-        <v>122</v>
+        <v>88</v>
       </c>
       <c r="F56" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G56" t="s">
-        <v>317</v>
+        <v>283</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B57" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C57" t="s">
         <v>63</v>
@@ -3046,67 +3085,67 @@
         <v>66</v>
       </c>
       <c r="E57" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="F57" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G57" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B58" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C58" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D58" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E58" t="s">
-        <v>124</v>
+        <v>146</v>
       </c>
       <c r="F58" t="s">
         <v>260</v>
       </c>
       <c r="G58" t="s">
-        <v>319</v>
+        <v>341</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B59" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="C59" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D59" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E59" t="s">
-        <v>125</v>
+        <v>175</v>
       </c>
       <c r="F59" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="G59" t="s">
-        <v>320</v>
+        <v>370</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B60" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="C60" t="s">
         <v>63</v>
@@ -3115,44 +3154,44 @@
         <v>66</v>
       </c>
       <c r="E60" t="s">
-        <v>126</v>
+        <v>204</v>
       </c>
       <c r="F60" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G60" t="s">
-        <v>321</v>
+        <v>399</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B61" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="C61" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D61" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E61" t="s">
-        <v>127</v>
+        <v>238</v>
       </c>
       <c r="F61" t="s">
         <v>260</v>
       </c>
       <c r="G61" t="s">
-        <v>322</v>
+        <v>433</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="B62" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C62" t="s">
         <v>63</v>
@@ -3161,136 +3200,136 @@
         <v>66</v>
       </c>
       <c r="E62" t="s">
-        <v>128</v>
+        <v>78</v>
       </c>
       <c r="F62" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G62" t="s">
-        <v>323</v>
+        <v>273</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="B63" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C63" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D63" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E63" t="s">
-        <v>129</v>
+        <v>110</v>
       </c>
       <c r="F63" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="G63" t="s">
-        <v>324</v>
+        <v>305</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="B64" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C64" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D64" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E64" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="F64" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="G64" t="s">
-        <v>325</v>
+        <v>335</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="B65" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="C65" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D65" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E65" t="s">
-        <v>131</v>
+        <v>177</v>
       </c>
       <c r="F65" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="G65" t="s">
-        <v>326</v>
+        <v>372</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B66" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="C66" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D66" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E66" t="s">
-        <v>132</v>
+        <v>199</v>
       </c>
       <c r="F66" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="G66" t="s">
-        <v>327</v>
+        <v>394</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B67" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="C67" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D67" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E67" t="s">
-        <v>133</v>
+        <v>231</v>
       </c>
       <c r="F67" t="s">
         <v>260</v>
       </c>
       <c r="G67" t="s">
-        <v>328</v>
+        <v>426</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B68" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C68" t="s">
         <v>63</v>
@@ -3299,21 +3338,21 @@
         <v>66</v>
       </c>
       <c r="E68" t="s">
-        <v>134</v>
+        <v>80</v>
       </c>
       <c r="F68" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G68" t="s">
-        <v>329</v>
+        <v>275</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="B69" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C69" t="s">
         <v>63</v>
@@ -3322,21 +3361,21 @@
         <v>66</v>
       </c>
       <c r="E69" t="s">
-        <v>135</v>
+        <v>115</v>
       </c>
       <c r="F69" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G69" t="s">
-        <v>330</v>
+        <v>310</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="B70" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C70" t="s">
         <v>63</v>
@@ -3345,21 +3384,21 @@
         <v>66</v>
       </c>
       <c r="E70" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="F70" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G70" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B71" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C71" t="s">
         <v>63</v>
@@ -3368,44 +3407,44 @@
         <v>66</v>
       </c>
       <c r="E71" t="s">
-        <v>137</v>
+        <v>173</v>
       </c>
       <c r="F71" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G71" t="s">
-        <v>332</v>
+        <v>368</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B72" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="C72" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D72" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E72" t="s">
-        <v>138</v>
+        <v>200</v>
       </c>
       <c r="F72" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="G72" t="s">
-        <v>333</v>
+        <v>395</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="B73" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="C73" t="s">
         <v>63</v>
@@ -3414,44 +3453,44 @@
         <v>66</v>
       </c>
       <c r="E73" t="s">
-        <v>139</v>
+        <v>236</v>
       </c>
       <c r="F73" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G73" t="s">
-        <v>334</v>
+        <v>431</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="B74" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C74" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D74" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E74" t="s">
-        <v>140</v>
+        <v>79</v>
       </c>
       <c r="F74" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="G74" t="s">
-        <v>335</v>
+        <v>274</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B75" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C75" t="s">
         <v>63</v>
@@ -3460,21 +3499,21 @@
         <v>66</v>
       </c>
       <c r="E75" t="s">
-        <v>141</v>
+        <v>109</v>
       </c>
       <c r="F75" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G75" t="s">
-        <v>336</v>
+        <v>304</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="B76" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C76" t="s">
         <v>63</v>
@@ -3483,21 +3522,21 @@
         <v>66</v>
       </c>
       <c r="E76" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="F76" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G76" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B77" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C77" t="s">
         <v>63</v>
@@ -3506,21 +3545,21 @@
         <v>66</v>
       </c>
       <c r="E77" t="s">
-        <v>143</v>
+        <v>165</v>
       </c>
       <c r="F77" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G77" t="s">
-        <v>338</v>
+        <v>360</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B78" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C78" t="s">
         <v>63</v>
@@ -3529,21 +3568,21 @@
         <v>66</v>
       </c>
       <c r="E78" t="s">
-        <v>144</v>
+        <v>181</v>
       </c>
       <c r="F78" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G78" t="s">
-        <v>339</v>
+        <v>376</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B79" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="C79" t="s">
         <v>63</v>
@@ -3552,21 +3591,21 @@
         <v>66</v>
       </c>
       <c r="E79" t="s">
-        <v>145</v>
+        <v>216</v>
       </c>
       <c r="F79" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G79" t="s">
-        <v>340</v>
+        <v>411</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="B80" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C80" t="s">
         <v>63</v>
@@ -3575,44 +3614,44 @@
         <v>66</v>
       </c>
       <c r="E80" t="s">
-        <v>146</v>
+        <v>69</v>
       </c>
       <c r="F80" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G80" t="s">
-        <v>341</v>
+        <v>264</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="B81" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C81" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D81" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E81" t="s">
-        <v>147</v>
+        <v>98</v>
       </c>
       <c r="F81" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="G81" t="s">
-        <v>342</v>
+        <v>293</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="B82" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C82" t="s">
         <v>63</v>
@@ -3621,13 +3660,13 @@
         <v>66</v>
       </c>
       <c r="E82" t="s">
-        <v>148</v>
+        <v>128</v>
       </c>
       <c r="F82" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G82" t="s">
-        <v>343</v>
+        <v>323</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.2">
@@ -3644,44 +3683,44 @@
         <v>66</v>
       </c>
       <c r="E83" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F83" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G83" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B84" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C84" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D84" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E84" t="s">
-        <v>150</v>
+        <v>167</v>
       </c>
       <c r="F84" t="s">
         <v>260</v>
       </c>
       <c r="G84" t="s">
-        <v>345</v>
+        <v>362</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="B85" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="C85" t="s">
         <v>63</v>
@@ -3690,21 +3729,21 @@
         <v>66</v>
       </c>
       <c r="E85" t="s">
-        <v>151</v>
+        <v>185</v>
       </c>
       <c r="F85" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G85" t="s">
-        <v>346</v>
+        <v>380</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="B86" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="C86" t="s">
         <v>63</v>
@@ -3713,67 +3752,67 @@
         <v>66</v>
       </c>
       <c r="E86" t="s">
-        <v>152</v>
+        <v>68</v>
       </c>
       <c r="F86" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G86" t="s">
-        <v>347</v>
+        <v>263</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="B87" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C87" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D87" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E87" t="s">
-        <v>153</v>
+        <v>99</v>
       </c>
       <c r="F87" t="s">
         <v>260</v>
       </c>
       <c r="G87" t="s">
-        <v>348</v>
+        <v>294</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="B88" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C88" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D88" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E88" t="s">
-        <v>154</v>
+        <v>129</v>
       </c>
       <c r="F88" t="s">
         <v>260</v>
       </c>
       <c r="G88" t="s">
-        <v>349</v>
+        <v>324</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="B89" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C89" t="s">
         <v>63</v>
@@ -3782,21 +3821,21 @@
         <v>66</v>
       </c>
       <c r="E89" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="F89" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G89" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="B90" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C90" t="s">
         <v>63</v>
@@ -3805,21 +3844,21 @@
         <v>66</v>
       </c>
       <c r="E90" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="F90" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G90" t="s">
-        <v>351</v>
+        <v>361</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="B91" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C91" t="s">
         <v>63</v>
@@ -3828,44 +3867,44 @@
         <v>66</v>
       </c>
       <c r="E91" t="s">
-        <v>157</v>
+        <v>187</v>
       </c>
       <c r="F91" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G91" t="s">
-        <v>352</v>
+        <v>382</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B92" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C92" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D92" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E92" t="s">
-        <v>158</v>
+        <v>74</v>
       </c>
       <c r="F92" t="s">
         <v>260</v>
       </c>
       <c r="G92" t="s">
-        <v>353</v>
+        <v>269</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B93" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C93" t="s">
         <v>63</v>
@@ -3874,21 +3913,21 @@
         <v>66</v>
       </c>
       <c r="E93" t="s">
-        <v>159</v>
+        <v>103</v>
       </c>
       <c r="F93" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G93" t="s">
-        <v>354</v>
+        <v>298</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="B94" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C94" t="s">
         <v>63</v>
@@ -3897,18 +3936,18 @@
         <v>66</v>
       </c>
       <c r="E94" t="s">
-        <v>160</v>
+        <v>132</v>
       </c>
       <c r="F94" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G94" t="s">
-        <v>355</v>
+        <v>327</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B95" t="s">
         <v>50</v>
@@ -3920,21 +3959,21 @@
         <v>66</v>
       </c>
       <c r="E95" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="F95" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G95" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="B96" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C96" t="s">
         <v>63</v>
@@ -3943,21 +3982,21 @@
         <v>66</v>
       </c>
       <c r="E96" t="s">
-        <v>162</v>
+        <v>179</v>
       </c>
       <c r="F96" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G96" t="s">
-        <v>357</v>
+        <v>374</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B97" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="C97" t="s">
         <v>63</v>
@@ -3966,21 +4005,21 @@
         <v>66</v>
       </c>
       <c r="E97" t="s">
-        <v>163</v>
+        <v>211</v>
       </c>
       <c r="F97" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G97" t="s">
-        <v>358</v>
+        <v>406</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="B98" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="C98" t="s">
         <v>63</v>
@@ -3989,67 +4028,67 @@
         <v>66</v>
       </c>
       <c r="E98" t="s">
-        <v>164</v>
+        <v>75</v>
       </c>
       <c r="F98" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G98" t="s">
-        <v>359</v>
+        <v>270</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B99" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C99" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D99" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E99" t="s">
-        <v>165</v>
+        <v>102</v>
       </c>
       <c r="F99" t="s">
         <v>260</v>
       </c>
       <c r="G99" t="s">
-        <v>360</v>
+        <v>297</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B100" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C100" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D100" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E100" t="s">
-        <v>166</v>
+        <v>131</v>
       </c>
       <c r="F100" t="s">
         <v>260</v>
       </c>
       <c r="G100" t="s">
-        <v>361</v>
+        <v>326</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B101" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C101" t="s">
         <v>63</v>
@@ -4058,44 +4097,44 @@
         <v>66</v>
       </c>
       <c r="E101" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="F101" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G101" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B102" t="s">
         <v>53</v>
       </c>
       <c r="C102" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D102" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E102" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="F102" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="G102" t="s">
-        <v>363</v>
+        <v>373</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="B103" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C103" t="s">
         <v>63</v>
@@ -4104,21 +4143,21 @@
         <v>66</v>
       </c>
       <c r="E103" t="s">
-        <v>169</v>
+        <v>210</v>
       </c>
       <c r="F103" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G103" t="s">
-        <v>364</v>
+        <v>405</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="B104" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="C104" t="s">
         <v>63</v>
@@ -4127,21 +4166,21 @@
         <v>66</v>
       </c>
       <c r="E104" t="s">
-        <v>170</v>
+        <v>77</v>
       </c>
       <c r="F104" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G104" t="s">
-        <v>365</v>
+        <v>272</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="B105" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="C105" t="s">
         <v>63</v>
@@ -4150,21 +4189,21 @@
         <v>66</v>
       </c>
       <c r="E105" t="s">
-        <v>171</v>
+        <v>101</v>
       </c>
       <c r="F105" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G105" t="s">
-        <v>366</v>
+        <v>296</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B106" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C106" t="s">
         <v>63</v>
@@ -4173,21 +4212,21 @@
         <v>66</v>
       </c>
       <c r="E106" t="s">
-        <v>172</v>
+        <v>133</v>
       </c>
       <c r="F106" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G106" t="s">
-        <v>367</v>
+        <v>328</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="B107" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C107" t="s">
         <v>63</v>
@@ -4196,21 +4235,21 @@
         <v>66</v>
       </c>
       <c r="E107" t="s">
-        <v>173</v>
+        <v>158</v>
       </c>
       <c r="F107" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G107" t="s">
-        <v>368</v>
+        <v>353</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B108" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C108" t="s">
         <v>63</v>
@@ -4219,21 +4258,21 @@
         <v>66</v>
       </c>
       <c r="E108" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="F108" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G108" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B109" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C109" t="s">
         <v>63</v>
@@ -4242,44 +4281,44 @@
         <v>66</v>
       </c>
       <c r="E109" t="s">
-        <v>175</v>
+        <v>209</v>
       </c>
       <c r="F109" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G109" t="s">
-        <v>370</v>
+        <v>404</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="B110" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="C110" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D110" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E110" t="s">
-        <v>176</v>
+        <v>94</v>
       </c>
       <c r="F110" t="s">
         <v>260</v>
       </c>
       <c r="G110" t="s">
-        <v>371</v>
+        <v>289</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="B111" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C111" t="s">
         <v>63</v>
@@ -4288,21 +4327,21 @@
         <v>66</v>
       </c>
       <c r="E111" t="s">
-        <v>177</v>
+        <v>125</v>
       </c>
       <c r="F111" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G111" t="s">
-        <v>372</v>
+        <v>320</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="B112" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C112" t="s">
         <v>63</v>
@@ -4311,21 +4350,21 @@
         <v>66</v>
       </c>
       <c r="E112" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="F112" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G112" t="s">
-        <v>373</v>
+        <v>363</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="B113" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C113" t="s">
         <v>63</v>
@@ -4334,21 +4373,21 @@
         <v>66</v>
       </c>
       <c r="E113" t="s">
-        <v>179</v>
+        <v>206</v>
       </c>
       <c r="F113" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G113" t="s">
-        <v>374</v>
+        <v>401</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="B114" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="C114" t="s">
         <v>63</v>
@@ -4357,21 +4396,21 @@
         <v>66</v>
       </c>
       <c r="E114" t="s">
-        <v>180</v>
+        <v>234</v>
       </c>
       <c r="F114" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G114" t="s">
-        <v>375</v>
+        <v>429</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="B115" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="C115" t="s">
         <v>63</v>
@@ -4380,44 +4419,44 @@
         <v>66</v>
       </c>
       <c r="E115" t="s">
-        <v>181</v>
+        <v>252</v>
       </c>
       <c r="F115" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G115" t="s">
-        <v>376</v>
+        <v>447</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="B116" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="C116" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D116" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E116" t="s">
-        <v>182</v>
+        <v>95</v>
       </c>
       <c r="F116" t="s">
         <v>260</v>
       </c>
       <c r="G116" t="s">
-        <v>377</v>
+        <v>290</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="B117" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="C117" t="s">
         <v>63</v>
@@ -4426,21 +4465,21 @@
         <v>66</v>
       </c>
       <c r="E117" t="s">
-        <v>183</v>
+        <v>126</v>
       </c>
       <c r="F117" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G117" t="s">
-        <v>378</v>
+        <v>321</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="B118" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C118" t="s">
         <v>63</v>
@@ -4449,21 +4488,21 @@
         <v>66</v>
       </c>
       <c r="E118" t="s">
-        <v>184</v>
+        <v>169</v>
       </c>
       <c r="F118" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G118" t="s">
-        <v>379</v>
+        <v>364</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="B119" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C119" t="s">
         <v>63</v>
@@ -4472,90 +4511,90 @@
         <v>66</v>
       </c>
       <c r="E119" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="F119" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G119" t="s">
-        <v>380</v>
+        <v>397</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="B120" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C120" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D120" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E120" t="s">
-        <v>186</v>
+        <v>237</v>
       </c>
       <c r="F120" t="s">
         <v>260</v>
       </c>
       <c r="G120" t="s">
-        <v>381</v>
+        <v>432</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="B121" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="C121" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D121" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E121" t="s">
-        <v>187</v>
+        <v>256</v>
       </c>
       <c r="F121" t="s">
         <v>260</v>
       </c>
       <c r="G121" t="s">
-        <v>382</v>
+        <v>451</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="B122" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="C122" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D122" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E122" t="s">
-        <v>188</v>
+        <v>96</v>
       </c>
       <c r="F122" t="s">
         <v>260</v>
       </c>
       <c r="G122" t="s">
-        <v>383</v>
+        <v>291</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="B123" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="C123" t="s">
         <v>63</v>
@@ -4564,18 +4603,18 @@
         <v>66</v>
       </c>
       <c r="E123" t="s">
-        <v>189</v>
+        <v>135</v>
       </c>
       <c r="F123" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G123" t="s">
-        <v>384</v>
+        <v>330</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B124" t="s">
         <v>51</v>
@@ -4587,44 +4626,44 @@
         <v>66</v>
       </c>
       <c r="E124" t="s">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="F124" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G124" t="s">
-        <v>385</v>
+        <v>365</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="B125" t="s">
         <v>57</v>
       </c>
       <c r="C125" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D125" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E125" t="s">
-        <v>191</v>
+        <v>208</v>
       </c>
       <c r="F125" t="s">
         <v>260</v>
       </c>
       <c r="G125" t="s">
-        <v>386</v>
+        <v>403</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="B126" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C126" t="s">
         <v>63</v>
@@ -4633,21 +4672,21 @@
         <v>66</v>
       </c>
       <c r="E126" t="s">
-        <v>192</v>
+        <v>232</v>
       </c>
       <c r="F126" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G126" t="s">
-        <v>387</v>
+        <v>427</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B127" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="C127" t="s">
         <v>63</v>
@@ -4656,13 +4695,13 @@
         <v>66</v>
       </c>
       <c r="E127" t="s">
-        <v>193</v>
+        <v>254</v>
       </c>
       <c r="F127" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G127" t="s">
-        <v>388</v>
+        <v>449</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.2">
@@ -4670,191 +4709,191 @@
         <v>21</v>
       </c>
       <c r="B128" t="s">
+        <v>39</v>
+      </c>
+      <c r="C128" t="s">
+        <v>63</v>
+      </c>
+      <c r="D128" t="s">
+        <v>66</v>
+      </c>
+      <c r="E128" t="s">
+        <v>81</v>
+      </c>
+      <c r="F128" t="s">
+        <v>259</v>
+      </c>
+      <c r="G128" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>21</v>
+      </c>
+      <c r="B129" t="s">
+        <v>45</v>
+      </c>
+      <c r="C129" t="s">
+        <v>63</v>
+      </c>
+      <c r="D129" t="s">
+        <v>66</v>
+      </c>
+      <c r="E129" t="s">
+        <v>117</v>
+      </c>
+      <c r="F129" t="s">
+        <v>259</v>
+      </c>
+      <c r="G129" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
+        <v>21</v>
+      </c>
+      <c r="B130" t="s">
+        <v>49</v>
+      </c>
+      <c r="C130" t="s">
+        <v>63</v>
+      </c>
+      <c r="D130" t="s">
+        <v>66</v>
+      </c>
+      <c r="E130" t="s">
+        <v>151</v>
+      </c>
+      <c r="F130" t="s">
+        <v>259</v>
+      </c>
+      <c r="G130" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
+        <v>21</v>
+      </c>
+      <c r="B131" t="s">
         <v>55</v>
       </c>
-      <c r="C128" t="s">
-        <v>63</v>
-      </c>
-      <c r="D128" t="s">
-        <v>66</v>
-      </c>
-      <c r="E128" t="s">
-        <v>194</v>
-      </c>
-      <c r="F128" t="s">
-        <v>260</v>
-      </c>
-      <c r="G128" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A129" t="s">
-        <v>22</v>
-      </c>
-      <c r="B129" t="s">
-        <v>54</v>
-      </c>
-      <c r="C129" t="s">
-        <v>63</v>
-      </c>
-      <c r="D129" t="s">
-        <v>66</v>
-      </c>
-      <c r="E129" t="s">
-        <v>195</v>
-      </c>
-      <c r="F129" t="s">
-        <v>260</v>
-      </c>
-      <c r="G129" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A130" t="s">
-        <v>25</v>
-      </c>
-      <c r="B130" t="s">
-        <v>55</v>
-      </c>
-      <c r="C130" t="s">
-        <v>63</v>
-      </c>
-      <c r="D130" t="s">
-        <v>66</v>
-      </c>
-      <c r="E130" t="s">
-        <v>196</v>
-      </c>
-      <c r="F130" t="s">
-        <v>260</v>
-      </c>
-      <c r="G130" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A131" t="s">
-        <v>33</v>
-      </c>
-      <c r="B131" t="s">
-        <v>57</v>
-      </c>
       <c r="C131" t="s">
+        <v>63</v>
+      </c>
+      <c r="D131" t="s">
+        <v>66</v>
+      </c>
+      <c r="E131" t="s">
+        <v>193</v>
+      </c>
+      <c r="F131" t="s">
+        <v>259</v>
+      </c>
+      <c r="G131" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
+        <v>21</v>
+      </c>
+      <c r="B132" t="s">
+        <v>59</v>
+      </c>
+      <c r="C132" t="s">
+        <v>63</v>
+      </c>
+      <c r="D132" t="s">
+        <v>66</v>
+      </c>
+      <c r="E132" t="s">
+        <v>222</v>
+      </c>
+      <c r="F132" t="s">
+        <v>259</v>
+      </c>
+      <c r="G132" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
+        <v>21</v>
+      </c>
+      <c r="B133" t="s">
+        <v>61</v>
+      </c>
+      <c r="C133" t="s">
+        <v>63</v>
+      </c>
+      <c r="D133" t="s">
+        <v>66</v>
+      </c>
+      <c r="E133" t="s">
+        <v>245</v>
+      </c>
+      <c r="F133" t="s">
+        <v>259</v>
+      </c>
+      <c r="G133" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
+        <v>26</v>
+      </c>
+      <c r="B134" t="s">
+        <v>39</v>
+      </c>
+      <c r="C134" t="s">
+        <v>63</v>
+      </c>
+      <c r="D134" t="s">
+        <v>66</v>
+      </c>
+      <c r="E134" t="s">
+        <v>86</v>
+      </c>
+      <c r="F134" t="s">
+        <v>259</v>
+      </c>
+      <c r="G134" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
+        <v>26</v>
+      </c>
+      <c r="B135" t="s">
+        <v>45</v>
+      </c>
+      <c r="C135" t="s">
         <v>64</v>
       </c>
-      <c r="D131" t="s">
+      <c r="D135" t="s">
         <v>67</v>
       </c>
-      <c r="E131" t="s">
-        <v>197</v>
-      </c>
-      <c r="F131" t="s">
-        <v>261</v>
-      </c>
-      <c r="G131" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A132" t="s">
-        <v>23</v>
-      </c>
-      <c r="B132" t="s">
-        <v>57</v>
-      </c>
-      <c r="C132" t="s">
-        <v>63</v>
-      </c>
-      <c r="D132" t="s">
-        <v>66</v>
-      </c>
-      <c r="E132" t="s">
-        <v>198</v>
-      </c>
-      <c r="F132" t="s">
-        <v>260</v>
-      </c>
-      <c r="G132" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A133" t="s">
-        <v>12</v>
-      </c>
-      <c r="B133" t="s">
-        <v>54</v>
-      </c>
-      <c r="C133" t="s">
-        <v>63</v>
-      </c>
-      <c r="D133" t="s">
-        <v>66</v>
-      </c>
-      <c r="E133" t="s">
-        <v>199</v>
-      </c>
-      <c r="F133" t="s">
-        <v>260</v>
-      </c>
-      <c r="G133" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A134" t="s">
-        <v>18</v>
-      </c>
-      <c r="B134" t="s">
-        <v>54</v>
-      </c>
-      <c r="C134" t="s">
-        <v>63</v>
-      </c>
-      <c r="D134" t="s">
-        <v>66</v>
-      </c>
-      <c r="E134" t="s">
-        <v>200</v>
-      </c>
-      <c r="F134" t="s">
-        <v>260</v>
-      </c>
-      <c r="G134" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A135" t="s">
-        <v>20</v>
-      </c>
-      <c r="B135" t="s">
-        <v>54</v>
-      </c>
-      <c r="C135" t="s">
-        <v>63</v>
-      </c>
-      <c r="D135" t="s">
-        <v>66</v>
-      </c>
       <c r="E135" t="s">
-        <v>201</v>
+        <v>121</v>
       </c>
       <c r="F135" t="s">
         <v>260</v>
       </c>
       <c r="G135" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B136" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="C136" t="s">
         <v>63</v>
@@ -4863,21 +4902,21 @@
         <v>66</v>
       </c>
       <c r="E136" t="s">
-        <v>202</v>
+        <v>152</v>
       </c>
       <c r="F136" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G136" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="B137" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C137" t="s">
         <v>63</v>
@@ -4886,481 +4925,493 @@
         <v>66</v>
       </c>
       <c r="E137" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
       <c r="F137" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G137" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B138" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C138" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D138" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E138" t="s">
-        <v>204</v>
+        <v>220</v>
       </c>
       <c r="F138" t="s">
         <v>260</v>
       </c>
       <c r="G138" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B139" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="C139" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D139" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E139" t="s">
-        <v>205</v>
+        <v>246</v>
       </c>
       <c r="F139" t="s">
         <v>260</v>
       </c>
       <c r="G139" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A140" t="s">
-        <v>37</v>
-      </c>
-      <c r="B140" t="s">
-        <v>57</v>
-      </c>
-      <c r="C140" t="s">
-        <v>63</v>
-      </c>
-      <c r="D140" t="s">
-        <v>66</v>
-      </c>
-      <c r="E140" t="s">
-        <v>206</v>
-      </c>
-      <c r="F140" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A140" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B140" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C140" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D140" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E140" s="4">
+        <v>121.91361256544501</v>
+      </c>
+      <c r="F140" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="G140" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="H140" s="3"/>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A141" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B141" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C141" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D141" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E141" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="F141" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="G141" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="H141" s="3"/>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A142" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B142" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C142" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D142" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E142" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="F142" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="G142" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="H142" s="3"/>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A143" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B143" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C143" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D143" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E143" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="F143" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="G143" s="4" t="s">
+        <v>378</v>
+      </c>
+      <c r="H143" s="3"/>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A144" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B144" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C144" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D144" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E144" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="F144" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="G144" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="H144" s="3"/>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A145" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B145" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C145" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D145" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E145" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="F145" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="G145" s="4" t="s">
+        <v>435</v>
+      </c>
+      <c r="H145" s="3"/>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A146" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B146" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C146" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D146" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E146" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="F146" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="G146" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="H146" s="3"/>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A147" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B147" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C147" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D147" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E147" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="F147" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="G140" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A141" t="s">
-        <v>34</v>
-      </c>
-      <c r="B141" t="s">
-        <v>57</v>
-      </c>
-      <c r="C141" t="s">
-        <v>63</v>
-      </c>
-      <c r="D141" t="s">
-        <v>66</v>
-      </c>
-      <c r="E141" t="s">
-        <v>207</v>
-      </c>
-      <c r="F141" t="s">
+      <c r="G147" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="H147" s="3"/>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A148" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B148" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C148" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D148" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E148" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="F148" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="G148" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="H148" s="3"/>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A149" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B149" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C149" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D149" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E149" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="F149" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="G149" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="H149" s="3"/>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A150" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B150" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C150" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D150" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E150" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="F150" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="G141" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A142" t="s">
-        <v>32</v>
-      </c>
-      <c r="B142" t="s">
-        <v>57</v>
-      </c>
-      <c r="C142" t="s">
+      <c r="G150" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="H150" s="3"/>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A151" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B151" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C151" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D151" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E151" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="F151" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="G151" s="4" t="s">
+        <v>439</v>
+      </c>
+      <c r="H151" s="3"/>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A152" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D152" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E152" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F152" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="G152" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A153" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D153" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E153" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="F153" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="G153" s="2" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A154" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D154" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E154" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F154" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="G154" s="2" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A155" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D155" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E155" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="F155" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="G155" s="2" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A156" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C156" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D142" t="s">
+      <c r="D156" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="E142" t="s">
-        <v>208</v>
-      </c>
-      <c r="F142" t="s">
-        <v>261</v>
-      </c>
-      <c r="G142" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A143" t="s">
-        <v>36</v>
-      </c>
-      <c r="B143" t="s">
-        <v>57</v>
-      </c>
-      <c r="C143" t="s">
-        <v>64</v>
-      </c>
-      <c r="D143" t="s">
-        <v>67</v>
-      </c>
-      <c r="E143" t="s">
-        <v>209</v>
-      </c>
-      <c r="F143" t="s">
-        <v>261</v>
-      </c>
-      <c r="G143" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A144" t="s">
-        <v>17</v>
-      </c>
-      <c r="B144" t="s">
-        <v>56</v>
-      </c>
-      <c r="C144" t="s">
-        <v>63</v>
-      </c>
-      <c r="D144" t="s">
-        <v>66</v>
-      </c>
-      <c r="E144" t="s">
-        <v>210</v>
-      </c>
-      <c r="F144" t="s">
+      <c r="E156" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="F156" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="G144" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A145" t="s">
-        <v>15</v>
-      </c>
-      <c r="B145" t="s">
-        <v>56</v>
-      </c>
-      <c r="C145" t="s">
-        <v>63</v>
-      </c>
-      <c r="D145" t="s">
-        <v>66</v>
-      </c>
-      <c r="E145" t="s">
-        <v>211</v>
-      </c>
-      <c r="F145" t="s">
-        <v>260</v>
-      </c>
-      <c r="G145" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A146" t="s">
-        <v>14</v>
-      </c>
-      <c r="B146" t="s">
-        <v>56</v>
-      </c>
-      <c r="C146" t="s">
-        <v>63</v>
-      </c>
-      <c r="D146" t="s">
-        <v>66</v>
-      </c>
-      <c r="E146" t="s">
-        <v>212</v>
-      </c>
-      <c r="F146" t="s">
-        <v>260</v>
-      </c>
-      <c r="G146" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A147" t="s">
-        <v>10</v>
-      </c>
-      <c r="B147" t="s">
-        <v>58</v>
-      </c>
-      <c r="C147" t="s">
-        <v>63</v>
-      </c>
-      <c r="D147" t="s">
-        <v>66</v>
-      </c>
-      <c r="E147" t="s">
-        <v>213</v>
-      </c>
-      <c r="F147" t="s">
-        <v>260</v>
-      </c>
-      <c r="G147" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A148" t="s">
-        <v>7</v>
-      </c>
-      <c r="B148" t="s">
-        <v>59</v>
-      </c>
-      <c r="C148" t="s">
-        <v>63</v>
-      </c>
-      <c r="D148" t="s">
-        <v>66</v>
-      </c>
-      <c r="E148" t="s">
-        <v>214</v>
-      </c>
-      <c r="F148" t="s">
-        <v>260</v>
-      </c>
-      <c r="G148" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A149" t="s">
-        <v>27</v>
-      </c>
-      <c r="B149" t="s">
-        <v>57</v>
-      </c>
-      <c r="C149" t="s">
-        <v>63</v>
-      </c>
-      <c r="D149" t="s">
-        <v>66</v>
-      </c>
-      <c r="E149" t="s">
-        <v>215</v>
-      </c>
-      <c r="F149" t="s">
-        <v>260</v>
-      </c>
-      <c r="G149" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A150" t="s">
-        <v>11</v>
-      </c>
-      <c r="B150" t="s">
-        <v>59</v>
-      </c>
-      <c r="C150" t="s">
-        <v>63</v>
-      </c>
-      <c r="D150" t="s">
-        <v>66</v>
-      </c>
-      <c r="E150" t="s">
-        <v>216</v>
-      </c>
-      <c r="F150" t="s">
-        <v>260</v>
-      </c>
-      <c r="G150" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A151" t="s">
-        <v>19</v>
-      </c>
-      <c r="B151" t="s">
-        <v>56</v>
-      </c>
-      <c r="C151" t="s">
-        <v>63</v>
-      </c>
-      <c r="D151" t="s">
-        <v>66</v>
-      </c>
-      <c r="E151" t="s">
-        <v>217</v>
-      </c>
-      <c r="F151" t="s">
-        <v>260</v>
-      </c>
-      <c r="G151" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A152" t="s">
+      <c r="G156" s="2" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A157" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B157" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D157" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E157" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="F157" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="G157" s="2" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A158" t="s">
         <v>25</v>
       </c>
-      <c r="B152" t="s">
-        <v>59</v>
-      </c>
-      <c r="C152" t="s">
-        <v>64</v>
-      </c>
-      <c r="D152" t="s">
-        <v>67</v>
-      </c>
-      <c r="E152" t="s">
-        <v>218</v>
-      </c>
-      <c r="F152" t="s">
-        <v>261</v>
-      </c>
-      <c r="G152" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A153" t="s">
-        <v>13</v>
-      </c>
-      <c r="B153" t="s">
-        <v>59</v>
-      </c>
-      <c r="C153" t="s">
-        <v>64</v>
-      </c>
-      <c r="D153" t="s">
-        <v>67</v>
-      </c>
-      <c r="E153" t="s">
-        <v>219</v>
-      </c>
-      <c r="F153" t="s">
-        <v>261</v>
-      </c>
-      <c r="G153" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A154" t="s">
-        <v>16</v>
-      </c>
-      <c r="B154" t="s">
-        <v>59</v>
-      </c>
-      <c r="C154" t="s">
-        <v>64</v>
-      </c>
-      <c r="D154" t="s">
-        <v>67</v>
-      </c>
-      <c r="E154" t="s">
-        <v>220</v>
-      </c>
-      <c r="F154" t="s">
-        <v>261</v>
-      </c>
-      <c r="G154" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A155" t="s">
-        <v>26</v>
-      </c>
-      <c r="B155" t="s">
-        <v>59</v>
-      </c>
-      <c r="C155" t="s">
-        <v>64</v>
-      </c>
-      <c r="D155" t="s">
-        <v>67</v>
-      </c>
-      <c r="E155" t="s">
-        <v>221</v>
-      </c>
-      <c r="F155" t="s">
-        <v>261</v>
-      </c>
-      <c r="G155" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A156" t="s">
-        <v>23</v>
-      </c>
-      <c r="B156" t="s">
-        <v>60</v>
-      </c>
-      <c r="C156" t="s">
-        <v>64</v>
-      </c>
-      <c r="D156" t="s">
-        <v>67</v>
-      </c>
-      <c r="E156" t="s">
-        <v>222</v>
-      </c>
-      <c r="F156" t="s">
-        <v>261</v>
-      </c>
-      <c r="G156" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A157" t="s">
-        <v>21</v>
-      </c>
-      <c r="B157" t="s">
-        <v>59</v>
-      </c>
-      <c r="C157" t="s">
-        <v>63</v>
-      </c>
-      <c r="D157" t="s">
-        <v>66</v>
-      </c>
-      <c r="E157" t="s">
-        <v>223</v>
-      </c>
-      <c r="F157" t="s">
-        <v>260</v>
-      </c>
-      <c r="G157" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A158" t="s">
-        <v>37</v>
-      </c>
       <c r="B158" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="C158" t="s">
         <v>63</v>
@@ -5369,21 +5420,21 @@
         <v>66</v>
       </c>
       <c r="E158" t="s">
-        <v>224</v>
+        <v>85</v>
       </c>
       <c r="F158" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G158" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.2">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B159" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="C159" t="s">
         <v>63</v>
@@ -5392,44 +5443,44 @@
         <v>66</v>
       </c>
       <c r="E159" t="s">
-        <v>225</v>
+        <v>107</v>
       </c>
       <c r="F159" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G159" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.2">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B160" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="C160" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D160" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E160" t="s">
-        <v>226</v>
+        <v>147</v>
       </c>
       <c r="F160" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="G160" t="s">
-        <v>421</v>
+        <v>342</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B161" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C161" t="s">
         <v>63</v>
@@ -5438,21 +5489,21 @@
         <v>66</v>
       </c>
       <c r="E161" t="s">
-        <v>227</v>
+        <v>195</v>
       </c>
       <c r="F161" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G161" t="s">
-        <v>422</v>
+        <v>390</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B162" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C162" t="s">
         <v>64</v>
@@ -5461,113 +5512,113 @@
         <v>67</v>
       </c>
       <c r="E162" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="F162" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G162" t="s">
-        <v>423</v>
+        <v>412</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B163" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C163" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D163" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E163" t="s">
-        <v>229</v>
+        <v>243</v>
       </c>
       <c r="F163" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="G163" t="s">
-        <v>424</v>
+        <v>438</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B164" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="C164" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D164" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E164" t="s">
-        <v>230</v>
+        <v>71</v>
       </c>
       <c r="F164" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="G164" t="s">
-        <v>425</v>
+        <v>266</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="B165" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="C165" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D165" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E165" t="s">
-        <v>231</v>
+        <v>106</v>
       </c>
       <c r="F165" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="G165" t="s">
-        <v>426</v>
+        <v>301</v>
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B166" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="C166" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D166" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E166" t="s">
-        <v>232</v>
+        <v>143</v>
       </c>
       <c r="F166" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="G166" t="s">
-        <v>427</v>
+        <v>338</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="B167" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C167" t="s">
         <v>63</v>
@@ -5576,44 +5627,44 @@
         <v>66</v>
       </c>
       <c r="E167" t="s">
-        <v>233</v>
+        <v>184</v>
       </c>
       <c r="F167" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G167" t="s">
-        <v>428</v>
+        <v>379</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="B168" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C168" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D168" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E168" t="s">
-        <v>234</v>
+        <v>215</v>
       </c>
       <c r="F168" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="G168" t="s">
-        <v>429</v>
+        <v>410</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="B169" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C169" t="s">
         <v>63</v>
@@ -5622,21 +5673,21 @@
         <v>66</v>
       </c>
       <c r="E169" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="F169" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G169" t="s">
-        <v>430</v>
+        <v>436</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B170" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="C170" t="s">
         <v>64</v>
@@ -5645,90 +5696,90 @@
         <v>67</v>
       </c>
       <c r="E170" t="s">
-        <v>236</v>
+        <v>87</v>
       </c>
       <c r="F170" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G170" t="s">
-        <v>431</v>
+        <v>282</v>
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="B171" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="C171" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D171" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E171" t="s">
-        <v>237</v>
+        <v>130</v>
       </c>
       <c r="F171" t="s">
         <v>260</v>
       </c>
       <c r="G171" t="s">
-        <v>432</v>
+        <v>325</v>
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="B172" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="C172" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D172" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E172" t="s">
-        <v>238</v>
+        <v>155</v>
       </c>
       <c r="F172" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="G172" t="s">
-        <v>433</v>
+        <v>350</v>
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B173" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C173" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D173" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E173" t="s">
-        <v>239</v>
+        <v>214</v>
       </c>
       <c r="F173" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="G173" t="s">
-        <v>434</v>
+        <v>409</v>
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="B174" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C174" t="s">
         <v>63</v>
@@ -5737,67 +5788,67 @@
         <v>66</v>
       </c>
       <c r="E174" t="s">
-        <v>240</v>
+        <v>226</v>
       </c>
       <c r="F174" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G174" t="s">
-        <v>435</v>
+        <v>421</v>
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="B175" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C175" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D175" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E175" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="F175" t="s">
         <v>260</v>
       </c>
       <c r="G175" t="s">
-        <v>436</v>
+        <v>444</v>
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="B176" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="C176" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D176" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E176" t="s">
-        <v>242</v>
+        <v>90</v>
       </c>
       <c r="F176" t="s">
         <v>260</v>
       </c>
       <c r="G176" t="s">
-        <v>437</v>
+        <v>285</v>
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="B177" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="C177" t="s">
         <v>63</v>
@@ -5806,21 +5857,21 @@
         <v>66</v>
       </c>
       <c r="E177" t="s">
-        <v>243</v>
+        <v>122</v>
       </c>
       <c r="F177" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G177" t="s">
-        <v>438</v>
+        <v>317</v>
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B178" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="C178" t="s">
         <v>63</v>
@@ -5829,21 +5880,21 @@
         <v>66</v>
       </c>
       <c r="E178" t="s">
-        <v>244</v>
+        <v>154</v>
       </c>
       <c r="F178" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G178" t="s">
-        <v>439</v>
+        <v>349</v>
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="B179" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C179" t="s">
         <v>63</v>
@@ -5852,90 +5903,90 @@
         <v>66</v>
       </c>
       <c r="E179" t="s">
-        <v>245</v>
+        <v>201</v>
       </c>
       <c r="F179" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G179" t="s">
-        <v>440</v>
+        <v>396</v>
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="B180" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C180" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D180" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E180" t="s">
-        <v>246</v>
+        <v>227</v>
       </c>
       <c r="F180" t="s">
         <v>260</v>
       </c>
       <c r="G180" t="s">
-        <v>441</v>
+        <v>422</v>
       </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B181" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C181" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D181" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E181" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="F181" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="G181" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="B182" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="C182" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D182" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E182" t="s">
-        <v>248</v>
+        <v>92</v>
       </c>
       <c r="F182" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="G182" t="s">
-        <v>443</v>
+        <v>287</v>
       </c>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B183" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="C183" t="s">
         <v>63</v>
@@ -5944,44 +5995,44 @@
         <v>66</v>
       </c>
       <c r="E183" t="s">
-        <v>249</v>
+        <v>123</v>
       </c>
       <c r="F183" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G183" t="s">
-        <v>444</v>
+        <v>318</v>
       </c>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B184" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="C184" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D184" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E184" t="s">
-        <v>250</v>
+        <v>161</v>
       </c>
       <c r="F184" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="G184" t="s">
-        <v>445</v>
+        <v>356</v>
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B185" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C185" t="s">
         <v>64</v>
@@ -5990,41 +6041,41 @@
         <v>67</v>
       </c>
       <c r="E185" t="s">
-        <v>251</v>
+        <v>207</v>
       </c>
       <c r="F185" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G185" t="s">
-        <v>446</v>
+        <v>402</v>
       </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B186" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C186" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D186" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E186" t="s">
-        <v>252</v>
+        <v>230</v>
       </c>
       <c r="F186" t="s">
         <v>260</v>
       </c>
       <c r="G186" t="s">
-        <v>447</v>
+        <v>425</v>
       </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B187" t="s">
         <v>62</v>
@@ -6036,21 +6087,21 @@
         <v>66</v>
       </c>
       <c r="E187" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="F187" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G187" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B188" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="C188" t="s">
         <v>63</v>
@@ -6059,44 +6110,44 @@
         <v>66</v>
       </c>
       <c r="E188" t="s">
-        <v>254</v>
+        <v>93</v>
       </c>
       <c r="F188" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G188" t="s">
-        <v>449</v>
+        <v>288</v>
       </c>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B189" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="C189" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D189" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E189" t="s">
-        <v>255</v>
+        <v>124</v>
       </c>
       <c r="F189" t="s">
         <v>260</v>
       </c>
       <c r="G189" t="s">
-        <v>450</v>
+        <v>319</v>
       </c>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B190" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="C190" t="s">
         <v>63</v>
@@ -6105,21 +6156,21 @@
         <v>66</v>
       </c>
       <c r="E190" t="s">
-        <v>256</v>
+        <v>163</v>
       </c>
       <c r="F190" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G190" t="s">
-        <v>451</v>
+        <v>358</v>
       </c>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B191" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C191" t="s">
         <v>64</v>
@@ -6128,13 +6179,13 @@
         <v>67</v>
       </c>
       <c r="E191" t="s">
-        <v>257</v>
+        <v>196</v>
       </c>
       <c r="F191" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G191" t="s">
-        <v>452</v>
+        <v>391</v>
       </c>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.2">
@@ -6142,7 +6193,7 @@
         <v>33</v>
       </c>
       <c r="B192" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C192" t="s">
         <v>64</v>
@@ -6151,18 +6202,18 @@
         <v>67</v>
       </c>
       <c r="E192" t="s">
-        <v>258</v>
+        <v>233</v>
       </c>
       <c r="F192" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G192" t="s">
-        <v>453</v>
+        <v>428</v>
       </c>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B193" t="s">
         <v>62</v>
@@ -6174,16 +6225,19 @@
         <v>67</v>
       </c>
       <c r="E193" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F193" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G193" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G195">
+    <sortCondition ref="A1:A195"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>